--- a/kosakata.xlsx
+++ b/kosakata.xlsx
@@ -1,25 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\bahasa arab\kosakata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE758940-2B95-44F9-B314-850BE48786D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="masjid" sheetId="1" r:id="rId1"/>
     <sheet name="asrama" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">asrama!$A$1:$C$199</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">masjid!$A$1:$C$199</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">asrama!$A$1:$C$199</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="404">
   <si>
     <t>Ayo kita beli jajan</t>
   </si>
@@ -610,9 +629,6 @@
   </si>
   <si>
     <t>Di atas ada siapa?</t>
-  </si>
-  <si>
-    <t>Sampai 176 aja</t>
   </si>
   <si>
     <t>Baju gamisku di mana?</t>
@@ -1239,14 +1255,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,346 +1264,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1630,251 +1310,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1891,61 +1329,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2203,11 +1597,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2217,13 +1612,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.4222222222222" customWidth="1"/>
-    <col min="3" max="3" width="39.4222222222222" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -2232,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -2241,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -2250,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -2259,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="5">
         <v>5</v>
       </c>
@@ -2268,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -2277,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -2286,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -2295,7 +1690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -2304,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="5">
         <v>10</v>
       </c>
@@ -2313,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="5">
         <v>11</v>
       </c>
@@ -2322,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="30" customHeight="1">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -2331,7 +1726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="30" customHeight="1">
       <c r="A13" s="5">
         <v>13</v>
       </c>
@@ -2340,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -2349,7 +1744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -2358,7 +1753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -2367,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="5">
         <v>17</v>
       </c>
@@ -2376,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="5">
         <v>18</v>
       </c>
@@ -2385,7 +1780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="5">
         <v>19</v>
       </c>
@@ -2394,7 +1789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="5">
         <v>20</v>
       </c>
@@ -2403,7 +1798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -2412,7 +1807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="5">
         <v>22</v>
       </c>
@@ -2421,7 +1816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="5">
         <v>23</v>
       </c>
@@ -2430,7 +1825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -2439,7 +1834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="30" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="A25" s="5">
         <v>25</v>
       </c>
@@ -2448,7 +1843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="30" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -2457,7 +1852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -2466,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -2475,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="30" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -2484,7 +1879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="30" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="A30" s="5">
         <v>30</v>
       </c>
@@ -2493,7 +1888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="30" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="5">
         <v>31</v>
       </c>
@@ -2502,7 +1897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="30" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -2511,7 +1906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="5">
         <v>33</v>
       </c>
@@ -2520,7 +1915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" ht="30" customHeight="1">
       <c r="A34" s="5">
         <v>34</v>
       </c>
@@ -2529,7 +1924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="30" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" ht="30" customHeight="1">
       <c r="A35" s="5">
         <v>35</v>
       </c>
@@ -2538,7 +1933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="30" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="A36" s="5">
         <v>36</v>
       </c>
@@ -2547,7 +1942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="30" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="A37" s="5">
         <v>37</v>
       </c>
@@ -2556,7 +1951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="30" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="A38" s="5">
         <v>38</v>
       </c>
@@ -2565,7 +1960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="30" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -2574,7 +1969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" ht="30" customHeight="1">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -2583,7 +1978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="30" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" ht="30" customHeight="1">
       <c r="A41" s="5">
         <v>41</v>
       </c>
@@ -2592,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="30" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" ht="30" customHeight="1">
       <c r="A42" s="5">
         <v>42</v>
       </c>
@@ -2601,7 +1996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="30" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" ht="30" customHeight="1">
       <c r="A43" s="5">
         <v>43</v>
       </c>
@@ -2610,7 +2005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="30" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" ht="30" customHeight="1">
       <c r="A44" s="5">
         <v>44</v>
       </c>
@@ -2619,7 +2014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="30" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" ht="30" customHeight="1">
       <c r="A45" s="5">
         <v>45</v>
       </c>
@@ -2628,7 +2023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="30" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" ht="30" customHeight="1">
       <c r="A46" s="5">
         <v>46</v>
       </c>
@@ -2637,7 +2032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="30" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" ht="30" customHeight="1">
       <c r="A47" s="5">
         <v>47</v>
       </c>
@@ -2646,7 +2041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="30" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" ht="30" customHeight="1">
       <c r="A48" s="5">
         <v>48</v>
       </c>
@@ -2655,7 +2050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="30" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" ht="30" customHeight="1">
       <c r="A49" s="5">
         <v>49</v>
       </c>
@@ -2664,7 +2059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="30" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="30" customHeight="1">
       <c r="A50" s="5">
         <v>50</v>
       </c>
@@ -2673,7 +2068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="30" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="30" customHeight="1">
       <c r="A51" s="5">
         <v>51</v>
       </c>
@@ -2682,7 +2077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="30" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" ht="30" customHeight="1">
       <c r="A52" s="5">
         <v>52</v>
       </c>
@@ -2691,7 +2086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1" spans="1:3">
+    <row r="53" spans="1:3" ht="30" customHeight="1">
       <c r="A53" s="5">
         <v>53</v>
       </c>
@@ -2700,7 +2095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="30" customHeight="1" spans="1:3">
+    <row r="54" spans="1:3" ht="30" customHeight="1">
       <c r="A54" s="5">
         <v>54</v>
       </c>
@@ -2709,7 +2104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3" ht="30" customHeight="1">
       <c r="A55" s="5">
         <v>55</v>
       </c>
@@ -2718,7 +2113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="30" customHeight="1" spans="1:3">
+    <row r="56" spans="1:3" ht="30" customHeight="1">
       <c r="A56" s="5">
         <v>56</v>
       </c>
@@ -2727,7 +2122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" ht="30" customHeight="1">
       <c r="A57" s="5">
         <v>57</v>
       </c>
@@ -2736,7 +2131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="30" customHeight="1" spans="1:3">
+    <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="A58" s="5">
         <v>58</v>
       </c>
@@ -2745,7 +2140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="30" customHeight="1" spans="1:3">
+    <row r="59" spans="1:3" ht="30" customHeight="1">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -2754,7 +2149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="30" customHeight="1" spans="1:3">
+    <row r="60" spans="1:3" ht="30" customHeight="1">
       <c r="A60" s="5">
         <v>60</v>
       </c>
@@ -2763,7 +2158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="30" customHeight="1" spans="1:3">
+    <row r="61" spans="1:3" ht="30" customHeight="1">
       <c r="A61" s="5">
         <v>61</v>
       </c>
@@ -2772,7 +2167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" ht="30" customHeight="1" spans="1:3">
+    <row r="62" spans="1:3" ht="30" customHeight="1">
       <c r="A62" s="5">
         <v>62</v>
       </c>
@@ -2781,7 +2176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" ht="30" customHeight="1" spans="1:3">
+    <row r="63" spans="1:3" ht="30" customHeight="1">
       <c r="A63" s="5">
         <v>63</v>
       </c>
@@ -2790,7 +2185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" ht="30" customHeight="1" spans="1:3">
+    <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="A64" s="5">
         <v>64</v>
       </c>
@@ -2799,7 +2194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" ht="30" customHeight="1" spans="1:3">
+    <row r="65" spans="1:3" ht="30" customHeight="1">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -2808,7 +2203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" ht="30" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" ht="30" customHeight="1">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -2817,7 +2212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" ht="30" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" ht="30" customHeight="1">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -2826,7 +2221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" ht="30" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" ht="30" customHeight="1">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -2835,7 +2230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" ht="30" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" ht="30" customHeight="1">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -2844,7 +2239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" ht="30" customHeight="1" spans="1:3">
+    <row r="70" spans="1:3" ht="30" customHeight="1">
       <c r="A70" s="5">
         <v>70</v>
       </c>
@@ -2853,7 +2248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" ht="30" customHeight="1" spans="1:3">
+    <row r="71" spans="1:3" ht="30" customHeight="1">
       <c r="A71" s="5">
         <v>71</v>
       </c>
@@ -2862,7 +2257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" ht="30" customHeight="1">
       <c r="A72" s="5">
         <v>72</v>
       </c>
@@ -2871,7 +2266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" ht="30" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" ht="30" customHeight="1">
       <c r="A73" s="5">
         <v>73</v>
       </c>
@@ -2880,7 +2275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" ht="30" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" ht="30" customHeight="1">
       <c r="A74" s="5">
         <v>74</v>
       </c>
@@ -2889,7 +2284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" ht="30" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" ht="30" customHeight="1">
       <c r="A75" s="5">
         <v>75</v>
       </c>
@@ -2898,7 +2293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" ht="30" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" ht="30" customHeight="1">
       <c r="A76" s="5">
         <v>76</v>
       </c>
@@ -2907,7 +2302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" ht="30" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" ht="30" customHeight="1">
       <c r="A77" s="5">
         <v>77</v>
       </c>
@@ -2916,7 +2311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" ht="30" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" ht="30" customHeight="1">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -2925,7 +2320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" ht="30" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" ht="30" customHeight="1">
       <c r="A79" s="5">
         <v>79</v>
       </c>
@@ -2934,7 +2329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" ht="30" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" ht="30" customHeight="1">
       <c r="A80" s="5">
         <v>80</v>
       </c>
@@ -2943,7 +2338,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" ht="30" customHeight="1" spans="1:3">
+    <row r="81" spans="1:3" ht="30" customHeight="1">
       <c r="A81" s="5">
         <v>81</v>
       </c>
@@ -2952,7 +2347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" ht="30" customHeight="1" spans="1:3">
+    <row r="82" spans="1:3" ht="30" customHeight="1">
       <c r="A82" s="5">
         <v>82</v>
       </c>
@@ -2961,7 +2356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" ht="30" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" ht="30" customHeight="1">
       <c r="A83" s="5">
         <v>83</v>
       </c>
@@ -2970,7 +2365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" ht="30" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" ht="30" customHeight="1">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -2979,7 +2374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" ht="30" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" ht="30" customHeight="1">
       <c r="A85" s="5">
         <v>85</v>
       </c>
@@ -2988,7 +2383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" ht="30" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" ht="30" customHeight="1">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -2997,7 +2392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" ht="30" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" ht="30" customHeight="1">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -3006,7 +2401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" ht="30" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" ht="30" customHeight="1">
       <c r="A88" s="5">
         <v>88</v>
       </c>
@@ -3015,7 +2410,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" ht="30" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" ht="30" customHeight="1">
       <c r="A89" s="5">
         <v>89</v>
       </c>
@@ -3024,7 +2419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" ht="30" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" ht="30" customHeight="1">
       <c r="A90" s="5">
         <v>90</v>
       </c>
@@ -3033,7 +2428,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" ht="30" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" ht="30" customHeight="1">
       <c r="A91" s="5">
         <v>91</v>
       </c>
@@ -3042,7 +2437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" ht="30" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" ht="30" customHeight="1">
       <c r="A92" s="5">
         <v>92</v>
       </c>
@@ -3051,7 +2446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" ht="30" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" ht="30" customHeight="1">
       <c r="A93" s="5">
         <v>93</v>
       </c>
@@ -3060,7 +2455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" ht="30" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" ht="30" customHeight="1">
       <c r="A94" s="5">
         <v>94</v>
       </c>
@@ -3069,7 +2464,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" ht="30" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" ht="30" customHeight="1">
       <c r="A95" s="5">
         <v>95</v>
       </c>
@@ -3078,7 +2473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" ht="30" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" ht="30" customHeight="1">
       <c r="A96" s="5">
         <v>96</v>
       </c>
@@ -3087,7 +2482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" ht="30" customHeight="1" spans="1:3">
+    <row r="97" spans="1:3" ht="30" customHeight="1">
       <c r="A97" s="5">
         <v>97</v>
       </c>
@@ -3096,7 +2491,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" ht="30" customHeight="1" spans="1:3">
+    <row r="98" spans="1:3" ht="30" customHeight="1">
       <c r="A98" s="5">
         <v>98</v>
       </c>
@@ -3105,7 +2500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" ht="30" customHeight="1" spans="1:3">
+    <row r="99" spans="1:3" ht="30" customHeight="1">
       <c r="A99" s="5">
         <v>99</v>
       </c>
@@ -3114,7 +2509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" ht="30" customHeight="1" spans="1:3">
+    <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="5">
         <v>100</v>
       </c>
@@ -3123,7 +2518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" ht="30" customHeight="1" spans="1:3">
+    <row r="101" spans="1:3" ht="30" customHeight="1">
       <c r="A101" s="5">
         <v>101</v>
       </c>
@@ -3132,7 +2527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" ht="30" customHeight="1" spans="1:3">
+    <row r="102" spans="1:3" ht="30" customHeight="1">
       <c r="A102" s="5">
         <v>102</v>
       </c>
@@ -3141,7 +2536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" ht="30" customHeight="1" spans="1:3">
+    <row r="103" spans="1:3" ht="30" customHeight="1">
       <c r="A103" s="5">
         <v>103</v>
       </c>
@@ -3150,7 +2545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" ht="30" customHeight="1" spans="1:3">
+    <row r="104" spans="1:3" ht="30" customHeight="1">
       <c r="A104" s="5">
         <v>104</v>
       </c>
@@ -3159,7 +2554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" ht="30" customHeight="1" spans="1:3">
+    <row r="105" spans="1:3" ht="30" customHeight="1">
       <c r="A105" s="5">
         <v>105</v>
       </c>
@@ -3168,7 +2563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" ht="30" customHeight="1" spans="1:3">
+    <row r="106" spans="1:3" ht="30" customHeight="1">
       <c r="A106" s="5">
         <v>106</v>
       </c>
@@ -3177,7 +2572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" ht="30" customHeight="1" spans="1:3">
+    <row r="107" spans="1:3" ht="30" customHeight="1">
       <c r="A107" s="5">
         <v>107</v>
       </c>
@@ -3186,7 +2581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" ht="30" customHeight="1" spans="1:3">
+    <row r="108" spans="1:3" ht="30" customHeight="1">
       <c r="A108" s="5">
         <v>108</v>
       </c>
@@ -3195,7 +2590,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" ht="30" customHeight="1" spans="1:3">
+    <row r="109" spans="1:3" ht="30" customHeight="1">
       <c r="A109" s="5">
         <v>109</v>
       </c>
@@ -3204,7 +2599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" ht="30" customHeight="1" spans="1:3">
+    <row r="110" spans="1:3" ht="30" customHeight="1">
       <c r="A110" s="5">
         <v>110</v>
       </c>
@@ -3213,7 +2608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" ht="30" customHeight="1" spans="1:3">
+    <row r="111" spans="1:3" ht="30" customHeight="1">
       <c r="A111" s="5">
         <v>111</v>
       </c>
@@ -3222,7 +2617,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" ht="30" customHeight="1" spans="1:3">
+    <row r="112" spans="1:3" ht="30" customHeight="1">
       <c r="A112" s="5">
         <v>112</v>
       </c>
@@ -3231,7 +2626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" ht="30" customHeight="1" spans="1:3">
+    <row r="113" spans="1:3" ht="30" customHeight="1">
       <c r="A113" s="5">
         <v>113</v>
       </c>
@@ -3240,7 +2635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" ht="30" customHeight="1" spans="1:3">
+    <row r="114" spans="1:3" ht="30" customHeight="1">
       <c r="A114" s="5">
         <v>114</v>
       </c>
@@ -3249,7 +2644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" ht="30" customHeight="1" spans="1:3">
+    <row r="115" spans="1:3" ht="30" customHeight="1">
       <c r="A115" s="5">
         <v>115</v>
       </c>
@@ -3258,7 +2653,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" ht="30" customHeight="1" spans="1:3">
+    <row r="116" spans="1:3" ht="30" customHeight="1">
       <c r="A116" s="5">
         <v>116</v>
       </c>
@@ -3267,7 +2662,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" ht="30" customHeight="1" spans="1:3">
+    <row r="117" spans="1:3" ht="30" customHeight="1">
       <c r="A117" s="5">
         <v>117</v>
       </c>
@@ -3276,7 +2671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" ht="30" customHeight="1" spans="1:3">
+    <row r="118" spans="1:3" ht="30" customHeight="1">
       <c r="A118" s="5">
         <v>118</v>
       </c>
@@ -3285,7 +2680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" ht="30" customHeight="1" spans="1:3">
+    <row r="119" spans="1:3" ht="30" customHeight="1">
       <c r="A119" s="5">
         <v>119</v>
       </c>
@@ -3294,7 +2689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" ht="30" customHeight="1" spans="1:3">
+    <row r="120" spans="1:3" ht="30" customHeight="1">
       <c r="A120" s="5">
         <v>120</v>
       </c>
@@ -3303,7 +2698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" ht="30" customHeight="1" spans="1:3">
+    <row r="121" spans="1:3" ht="30" customHeight="1">
       <c r="A121" s="5">
         <v>121</v>
       </c>
@@ -3312,7 +2707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" ht="30" customHeight="1" spans="1:3">
+    <row r="122" spans="1:3" ht="30" customHeight="1">
       <c r="A122" s="5">
         <v>122</v>
       </c>
@@ -3321,7 +2716,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" ht="30" customHeight="1" spans="1:3">
+    <row r="123" spans="1:3" ht="30" customHeight="1">
       <c r="A123" s="5">
         <v>123</v>
       </c>
@@ -3330,7 +2725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" ht="30" customHeight="1" spans="1:3">
+    <row r="124" spans="1:3" ht="30" customHeight="1">
       <c r="A124" s="5">
         <v>124</v>
       </c>
@@ -3339,7 +2734,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" ht="30" customHeight="1" spans="1:3">
+    <row r="125" spans="1:3" ht="30" customHeight="1">
       <c r="A125" s="5">
         <v>125</v>
       </c>
@@ -3348,7 +2743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" ht="30" customHeight="1" spans="1:3">
+    <row r="126" spans="1:3" ht="30" customHeight="1">
       <c r="A126" s="5">
         <v>126</v>
       </c>
@@ -3357,7 +2752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" ht="30" customHeight="1" spans="1:3">
+    <row r="127" spans="1:3" ht="30" customHeight="1">
       <c r="A127" s="5">
         <v>127</v>
       </c>
@@ -3366,7 +2761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" ht="30" customHeight="1" spans="1:3">
+    <row r="128" spans="1:3" ht="30" customHeight="1">
       <c r="A128" s="5">
         <v>128</v>
       </c>
@@ -3375,7 +2770,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" ht="30" customHeight="1" spans="1:3">
+    <row r="129" spans="1:3" ht="30" customHeight="1">
       <c r="A129" s="5">
         <v>129</v>
       </c>
@@ -3384,7 +2779,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" ht="30" customHeight="1" spans="1:3">
+    <row r="130" spans="1:3" ht="30" customHeight="1">
       <c r="A130" s="5">
         <v>130</v>
       </c>
@@ -3393,7 +2788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1" spans="1:3">
+    <row r="131" spans="1:3" ht="30" customHeight="1">
       <c r="A131" s="5">
         <v>131</v>
       </c>
@@ -3402,7 +2797,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" ht="30" customHeight="1" spans="1:3">
+    <row r="132" spans="1:3" ht="30" customHeight="1">
       <c r="A132" s="5">
         <v>132</v>
       </c>
@@ -3411,7 +2806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" ht="30" customHeight="1" spans="1:3">
+    <row r="133" spans="1:3" ht="30" customHeight="1">
       <c r="A133" s="5">
         <v>133</v>
       </c>
@@ -3420,7 +2815,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" ht="30" customHeight="1" spans="1:3">
+    <row r="134" spans="1:3" ht="30" customHeight="1">
       <c r="A134" s="5">
         <v>134</v>
       </c>
@@ -3429,7 +2824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" ht="30" customHeight="1" spans="1:3">
+    <row r="135" spans="1:3" ht="30" customHeight="1">
       <c r="A135" s="5">
         <v>135</v>
       </c>
@@ -3438,7 +2833,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" ht="30" customHeight="1" spans="1:3">
+    <row r="136" spans="1:3" ht="30" customHeight="1">
       <c r="A136" s="5">
         <v>136</v>
       </c>
@@ -3447,7 +2842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" ht="30" customHeight="1" spans="1:3">
+    <row r="137" spans="1:3" ht="30" customHeight="1">
       <c r="A137" s="5">
         <v>137</v>
       </c>
@@ -3456,7 +2851,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" ht="30" customHeight="1" spans="1:3">
+    <row r="138" spans="1:3" ht="30" customHeight="1">
       <c r="A138" s="5">
         <v>138</v>
       </c>
@@ -3465,7 +2860,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" ht="30" customHeight="1" spans="1:3">
+    <row r="139" spans="1:3" ht="30" customHeight="1">
       <c r="A139" s="5">
         <v>139</v>
       </c>
@@ -3474,7 +2869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" ht="30" customHeight="1" spans="1:3">
+    <row r="140" spans="1:3" ht="30" customHeight="1">
       <c r="A140" s="5">
         <v>140</v>
       </c>
@@ -3483,7 +2878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" ht="30" customHeight="1" spans="1:3">
+    <row r="141" spans="1:3" ht="30" customHeight="1">
       <c r="A141" s="5">
         <v>141</v>
       </c>
@@ -3492,7 +2887,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" ht="30" customHeight="1" spans="1:3">
+    <row r="142" spans="1:3" ht="30" customHeight="1">
       <c r="A142" s="5">
         <v>142</v>
       </c>
@@ -3501,7 +2896,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" ht="30" customHeight="1" spans="1:3">
+    <row r="143" spans="1:3" ht="30" customHeight="1">
       <c r="A143" s="5">
         <v>143</v>
       </c>
@@ -3510,7 +2905,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" ht="30" customHeight="1" spans="1:3">
+    <row r="144" spans="1:3" ht="30" customHeight="1">
       <c r="A144" s="5">
         <v>144</v>
       </c>
@@ -3519,7 +2914,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1" spans="1:3">
+    <row r="145" spans="1:3" ht="30" customHeight="1">
       <c r="A145" s="5">
         <v>145</v>
       </c>
@@ -3528,7 +2923,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" ht="30" customHeight="1" spans="1:3">
+    <row r="146" spans="1:3" ht="30" customHeight="1">
       <c r="A146" s="5">
         <v>146</v>
       </c>
@@ -3537,7 +2932,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" ht="30" customHeight="1" spans="1:3">
+    <row r="147" spans="1:3" ht="30" customHeight="1">
       <c r="A147" s="5">
         <v>147</v>
       </c>
@@ -3546,7 +2941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" ht="30" customHeight="1" spans="1:3">
+    <row r="148" spans="1:3" ht="30" customHeight="1">
       <c r="A148" s="5">
         <v>148</v>
       </c>
@@ -3555,7 +2950,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" ht="30" customHeight="1" spans="1:3">
+    <row r="149" spans="1:3" ht="30" customHeight="1">
       <c r="A149" s="5">
         <v>149</v>
       </c>
@@ -3564,7 +2959,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" ht="30" customHeight="1" spans="1:3">
+    <row r="150" spans="1:3" ht="30" customHeight="1">
       <c r="A150" s="5">
         <v>150</v>
       </c>
@@ -3573,7 +2968,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" ht="30" customHeight="1" spans="1:3">
+    <row r="151" spans="1:3" ht="30" customHeight="1">
       <c r="A151" s="5">
         <v>151</v>
       </c>
@@ -3582,7 +2977,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" ht="30" customHeight="1" spans="1:3">
+    <row r="152" spans="1:3" ht="30" customHeight="1">
       <c r="A152" s="5">
         <v>152</v>
       </c>
@@ -3591,7 +2986,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" ht="30" customHeight="1" spans="1:3">
+    <row r="153" spans="1:3" ht="30" customHeight="1">
       <c r="A153" s="5">
         <v>153</v>
       </c>
@@ -3600,7 +2995,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" ht="30" customHeight="1" spans="1:3">
+    <row r="154" spans="1:3" ht="30" customHeight="1">
       <c r="A154" s="5">
         <v>154</v>
       </c>
@@ -3609,7 +3004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" ht="30" customHeight="1" spans="1:3">
+    <row r="155" spans="1:3" ht="30" customHeight="1">
       <c r="A155" s="5">
         <v>155</v>
       </c>
@@ -3618,7 +3013,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" ht="30" customHeight="1" spans="1:3">
+    <row r="156" spans="1:3" ht="30" customHeight="1">
       <c r="A156" s="5">
         <v>156</v>
       </c>
@@ -3627,7 +3022,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" ht="30" customHeight="1" spans="1:3">
+    <row r="157" spans="1:3" ht="30" customHeight="1">
       <c r="A157" s="5">
         <v>157</v>
       </c>
@@ -3636,7 +3031,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158" ht="30" customHeight="1" spans="1:3">
+    <row r="158" spans="1:3" ht="30" customHeight="1">
       <c r="A158" s="5">
         <v>158</v>
       </c>
@@ -3645,7 +3040,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" ht="30" customHeight="1" spans="1:3">
+    <row r="159" spans="1:3" ht="30" customHeight="1">
       <c r="A159" s="5">
         <v>159</v>
       </c>
@@ -3654,7 +3049,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" ht="30" customHeight="1" spans="1:3">
+    <row r="160" spans="1:3" ht="30" customHeight="1">
       <c r="A160" s="5">
         <v>160</v>
       </c>
@@ -3663,7 +3058,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" ht="30" customHeight="1" spans="1:3">
+    <row r="161" spans="1:3" ht="30" customHeight="1">
       <c r="A161" s="5">
         <v>161</v>
       </c>
@@ -3672,7 +3067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" ht="30" customHeight="1" spans="1:3">
+    <row r="162" spans="1:3" ht="30" customHeight="1">
       <c r="A162" s="5">
         <v>162</v>
       </c>
@@ -3681,7 +3076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="163" ht="30" customHeight="1" spans="1:3">
+    <row r="163" spans="1:3" ht="30" customHeight="1">
       <c r="A163" s="5">
         <v>163</v>
       </c>
@@ -3690,7 +3085,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" ht="30" customHeight="1" spans="1:3">
+    <row r="164" spans="1:3" ht="30" customHeight="1">
       <c r="A164" s="5">
         <v>164</v>
       </c>
@@ -3699,7 +3094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" ht="30" customHeight="1" spans="1:3">
+    <row r="165" spans="1:3" ht="30" customHeight="1">
       <c r="A165" s="5">
         <v>165</v>
       </c>
@@ -3708,7 +3103,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="166" ht="30" customHeight="1" spans="1:3">
+    <row r="166" spans="1:3" ht="30" customHeight="1">
       <c r="A166" s="5">
         <v>166</v>
       </c>
@@ -3717,7 +3112,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="167" ht="30" customHeight="1" spans="1:3">
+    <row r="167" spans="1:3" ht="30" customHeight="1">
       <c r="A167" s="5">
         <v>167</v>
       </c>
@@ -3726,7 +3121,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" ht="30" customHeight="1" spans="1:3">
+    <row r="168" spans="1:3" ht="30" customHeight="1">
       <c r="A168" s="5">
         <v>168</v>
       </c>
@@ -3735,7 +3130,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" ht="30" customHeight="1" spans="1:3">
+    <row r="169" spans="1:3" ht="30" customHeight="1">
       <c r="A169" s="5">
         <v>169</v>
       </c>
@@ -3744,7 +3139,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="170" ht="30" customHeight="1" spans="1:3">
+    <row r="170" spans="1:3" ht="30" customHeight="1">
       <c r="A170" s="5">
         <v>170</v>
       </c>
@@ -3753,7 +3148,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" ht="30" customHeight="1" spans="1:3">
+    <row r="171" spans="1:3" ht="30" customHeight="1">
       <c r="A171" s="5">
         <v>171</v>
       </c>
@@ -3762,7 +3157,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" ht="30" customHeight="1" spans="1:3">
+    <row r="172" spans="1:3" ht="30" customHeight="1">
       <c r="A172" s="5">
         <v>172</v>
       </c>
@@ -3771,7 +3166,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" ht="30" customHeight="1" spans="1:3">
+    <row r="173" spans="1:3" ht="30" customHeight="1">
       <c r="A173" s="5">
         <v>173</v>
       </c>
@@ -3780,7 +3175,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" ht="30" customHeight="1" spans="1:3">
+    <row r="174" spans="1:3" ht="30" customHeight="1">
       <c r="A174" s="5">
         <v>174</v>
       </c>
@@ -3789,7 +3184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" ht="30" customHeight="1" spans="1:3">
+    <row r="175" spans="1:3" ht="30" customHeight="1">
       <c r="A175" s="5">
         <v>175</v>
       </c>
@@ -3798,7 +3193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" ht="30" customHeight="1" spans="1:3">
+    <row r="176" spans="1:3" ht="30" customHeight="1">
       <c r="A176" s="5">
         <v>176</v>
       </c>
@@ -3807,7 +3202,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" ht="30" customHeight="1" spans="1:3">
+    <row r="177" spans="1:3" ht="30" customHeight="1">
       <c r="A177" s="5">
         <v>177</v>
       </c>
@@ -3816,7 +3211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" ht="30" customHeight="1" spans="1:3">
+    <row r="178" spans="1:3" ht="30" customHeight="1">
       <c r="A178" s="5">
         <v>178</v>
       </c>
@@ -3825,7 +3220,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" ht="30" customHeight="1" spans="1:3">
+    <row r="179" spans="1:3" ht="30" customHeight="1">
       <c r="A179" s="5">
         <v>179</v>
       </c>
@@ -3834,7 +3229,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" ht="30" customHeight="1" spans="1:3">
+    <row r="180" spans="1:3" ht="30" customHeight="1">
       <c r="A180" s="5">
         <v>180</v>
       </c>
@@ -3843,7 +3238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" ht="30" customHeight="1" spans="1:3">
+    <row r="181" spans="1:3" ht="30" customHeight="1">
       <c r="A181" s="5">
         <v>181</v>
       </c>
@@ -3852,7 +3247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" ht="30" customHeight="1" spans="1:3">
+    <row r="182" spans="1:3" ht="30" customHeight="1">
       <c r="A182" s="5">
         <v>182</v>
       </c>
@@ -3861,7 +3256,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" ht="30" customHeight="1" spans="1:3">
+    <row r="183" spans="1:3" ht="30" customHeight="1">
       <c r="A183" s="5">
         <v>183</v>
       </c>
@@ -3870,7 +3265,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" ht="30" customHeight="1" spans="1:3">
+    <row r="184" spans="1:3" ht="30" customHeight="1">
       <c r="A184" s="5">
         <v>184</v>
       </c>
@@ -3879,7 +3274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" ht="30" customHeight="1" spans="1:3">
+    <row r="185" spans="1:3" ht="30" customHeight="1">
       <c r="A185" s="5">
         <v>185</v>
       </c>
@@ -3888,7 +3283,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" ht="30" customHeight="1" spans="1:3">
+    <row r="186" spans="1:3" ht="30" customHeight="1">
       <c r="A186" s="5">
         <v>186</v>
       </c>
@@ -3897,7 +3292,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" ht="30" customHeight="1" spans="1:3">
+    <row r="187" spans="1:3" ht="30" customHeight="1">
       <c r="A187" s="5">
         <v>187</v>
       </c>
@@ -3906,7 +3301,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="188" ht="30" customHeight="1" spans="1:3">
+    <row r="188" spans="1:3" ht="30" customHeight="1">
       <c r="A188" s="5">
         <v>188</v>
       </c>
@@ -3915,7 +3310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" ht="30" customHeight="1" spans="1:3">
+    <row r="189" spans="1:3" ht="30" customHeight="1">
       <c r="A189" s="5">
         <v>189</v>
       </c>
@@ -3924,7 +3319,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="190" ht="30" customHeight="1" spans="1:3">
+    <row r="190" spans="1:3" ht="30" customHeight="1">
       <c r="A190" s="5">
         <v>190</v>
       </c>
@@ -3933,7 +3328,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" ht="30" customHeight="1" spans="1:3">
+    <row r="191" spans="1:3" ht="30" customHeight="1">
       <c r="A191" s="5">
         <v>191</v>
       </c>
@@ -3942,7 +3337,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" ht="30" customHeight="1" spans="1:3">
+    <row r="192" spans="1:3" ht="30" customHeight="1">
       <c r="A192" s="5">
         <v>192</v>
       </c>
@@ -3951,7 +3346,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="193" ht="30" customHeight="1" spans="1:3">
+    <row r="193" spans="1:3" ht="30" customHeight="1">
       <c r="A193" s="5">
         <v>193</v>
       </c>
@@ -3960,7 +3355,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="194" ht="30" customHeight="1" spans="1:3">
+    <row r="194" spans="1:3" ht="30" customHeight="1">
       <c r="A194" s="5">
         <v>194</v>
       </c>
@@ -3969,7 +3364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" ht="30" customHeight="1" spans="1:3">
+    <row r="195" spans="1:3" ht="30" customHeight="1">
       <c r="A195" s="5">
         <v>195</v>
       </c>
@@ -3978,7 +3373,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" ht="30" customHeight="1" spans="1:3">
+    <row r="196" spans="1:3" ht="30" customHeight="1">
       <c r="A196" s="5">
         <v>196</v>
       </c>
@@ -3987,7 +3382,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="197" ht="30" customHeight="1" spans="1:3">
+    <row r="197" spans="1:3" ht="30" customHeight="1">
       <c r="A197" s="5">
         <v>197</v>
       </c>
@@ -3996,7 +3391,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" ht="30" customHeight="1" spans="1:3">
+    <row r="198" spans="1:3" ht="30" customHeight="1">
       <c r="A198" s="5">
         <v>198</v>
       </c>
@@ -4005,7 +3400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" ht="30" customHeight="1" spans="1:3">
+    <row r="199" spans="1:3" ht="30" customHeight="1">
       <c r="A199" s="6">
         <v>199</v>
       </c>
@@ -4017,28 +3412,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.4222222222222" customWidth="1"/>
-    <col min="3" max="3" width="39.4222222222222" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:5">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -4046,1784 +3440,1781 @@
       <c r="C1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" ht="30" customHeight="1" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" ht="30" customHeight="1" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
       <c r="A34" s="2">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" ht="30" customHeight="1" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" customHeight="1">
       <c r="A48" s="2">
         <v>48</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1">
       <c r="A49" s="2">
         <v>49</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" ht="30" customHeight="1" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1">
       <c r="A50" s="2">
         <v>50</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" ht="30" customHeight="1" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1">
       <c r="A51" s="2">
         <v>51</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" ht="30" customHeight="1" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1">
       <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" ht="30" customHeight="1" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" customHeight="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" ht="30" customHeight="1" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1">
       <c r="A54" s="2">
         <v>54</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" ht="30" customHeight="1" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1">
       <c r="A55" s="2">
         <v>55</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" ht="30" customHeight="1" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1">
       <c r="A56" s="2">
         <v>56</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" ht="30" customHeight="1" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1">
       <c r="A57" s="2">
         <v>57</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" ht="30" customHeight="1" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="A58" s="2">
         <v>58</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" ht="30" customHeight="1" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" customHeight="1">
       <c r="A59" s="2">
         <v>59</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" ht="30" customHeight="1" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" customHeight="1">
       <c r="A60" s="2">
         <v>60</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" ht="30" customHeight="1" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" customHeight="1">
       <c r="A61" s="2">
         <v>61</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" ht="30" customHeight="1" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" customHeight="1">
       <c r="A62" s="2">
         <v>62</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" ht="30" customHeight="1" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" customHeight="1">
       <c r="A63" s="2">
         <v>63</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="A64" s="2">
         <v>64</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" ht="30" customHeight="1" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" customHeight="1">
       <c r="A65" s="2">
         <v>65</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" ht="30" customHeight="1" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" customHeight="1">
       <c r="A66" s="2">
         <v>66</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" ht="30" customHeight="1" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" customHeight="1">
       <c r="A67" s="2">
         <v>67</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" ht="30" customHeight="1" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" customHeight="1">
       <c r="A68" s="2">
         <v>68</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" ht="30" customHeight="1" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" customHeight="1">
       <c r="A69" s="2">
         <v>69</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" ht="30" customHeight="1" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1">
       <c r="A70" s="2">
         <v>70</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" ht="30" customHeight="1" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" customHeight="1">
       <c r="A71" s="2">
         <v>71</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" ht="30" customHeight="1" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" customHeight="1">
       <c r="A72" s="2">
         <v>72</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" ht="30" customHeight="1" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" customHeight="1">
       <c r="A73" s="2">
         <v>73</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" ht="30" customHeight="1" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" customHeight="1">
       <c r="A74" s="2">
         <v>74</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" ht="30" customHeight="1" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" customHeight="1">
       <c r="A75" s="2">
         <v>75</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" ht="30" customHeight="1" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" customHeight="1">
       <c r="A76" s="2">
         <v>76</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" ht="30" customHeight="1" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" customHeight="1">
       <c r="A77" s="2">
         <v>77</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78" ht="30" customHeight="1" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" customHeight="1">
       <c r="A78" s="2">
         <v>78</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" ht="30" customHeight="1" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" customHeight="1">
       <c r="A79" s="2">
         <v>79</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" ht="30" customHeight="1" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" customHeight="1">
       <c r="A80" s="2">
         <v>80</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" ht="30" customHeight="1" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" customHeight="1">
       <c r="A81" s="2">
         <v>81</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="82" ht="30" customHeight="1" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" customHeight="1">
       <c r="A82" s="2">
         <v>82</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" ht="30" customHeight="1" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" customHeight="1">
       <c r="A83" s="2">
         <v>83</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" ht="30" customHeight="1" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" customHeight="1">
       <c r="A84" s="2">
         <v>84</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" ht="30" customHeight="1" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" customHeight="1">
       <c r="A85" s="2">
         <v>85</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" ht="30" customHeight="1" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" customHeight="1">
       <c r="A86" s="2">
         <v>86</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" ht="30" customHeight="1" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" customHeight="1">
       <c r="A87" s="2">
         <v>87</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="88" ht="30" customHeight="1" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" customHeight="1">
       <c r="A88" s="2">
         <v>88</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="89" ht="30" customHeight="1" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" customHeight="1">
       <c r="A89" s="2">
         <v>89</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" ht="30" customHeight="1" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1">
       <c r="A90" s="2">
         <v>90</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" ht="30" customHeight="1" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" customHeight="1">
       <c r="A91" s="2">
         <v>91</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" ht="30" customHeight="1" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" customHeight="1">
       <c r="A92" s="2">
         <v>92</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" ht="30" customHeight="1" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" customHeight="1">
       <c r="A93" s="2">
         <v>93</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="94" ht="30" customHeight="1" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" customHeight="1">
       <c r="A94" s="2">
         <v>94</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" ht="30" customHeight="1" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" customHeight="1">
       <c r="A95" s="2">
         <v>95</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" ht="30" customHeight="1" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" customHeight="1">
       <c r="A96" s="2">
         <v>96</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" ht="30" customHeight="1" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" customHeight="1">
       <c r="A97" s="2">
         <v>97</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" ht="30" customHeight="1" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" customHeight="1">
       <c r="A98" s="2">
         <v>98</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" ht="30" customHeight="1" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" customHeight="1">
       <c r="A99" s="2">
         <v>99</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" ht="30" customHeight="1" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" customHeight="1">
       <c r="A100" s="2">
         <v>100</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" ht="30" customHeight="1" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" customHeight="1">
       <c r="A101" s="2">
         <v>101</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" ht="30" customHeight="1" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" customHeight="1">
       <c r="A102" s="2">
         <v>102</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" ht="30" customHeight="1" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" customHeight="1">
       <c r="A103" s="2">
         <v>103</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="104" ht="30" customHeight="1" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" customHeight="1">
       <c r="A104" s="2">
         <v>104</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="105" ht="30" customHeight="1" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" customHeight="1">
       <c r="A105" s="2">
         <v>105</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="106" ht="30" customHeight="1" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" customHeight="1">
       <c r="A106" s="2">
         <v>106</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" ht="30" customHeight="1" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" customHeight="1">
       <c r="A107" s="2">
         <v>107</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="108" ht="30" customHeight="1" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" customHeight="1">
       <c r="A108" s="2">
         <v>108</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" ht="30" customHeight="1" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" customHeight="1">
       <c r="A109" s="2">
         <v>109</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="110" ht="30" customHeight="1" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" customHeight="1">
       <c r="A110" s="2">
         <v>110</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="111" ht="30" customHeight="1" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30" customHeight="1">
       <c r="A111" s="2">
         <v>111</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="112" ht="30" customHeight="1" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" customHeight="1">
       <c r="A112" s="2">
         <v>112</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" ht="30" customHeight="1" spans="1:3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" customHeight="1">
       <c r="A113" s="2">
         <v>113</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="114" ht="30" customHeight="1" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" customHeight="1">
       <c r="A114" s="2">
         <v>114</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="115" ht="30" customHeight="1" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" customHeight="1">
       <c r="A115" s="2">
         <v>115</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="116" ht="30" customHeight="1" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" customHeight="1">
       <c r="A116" s="2">
         <v>116</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" ht="30" customHeight="1" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1">
       <c r="A117" s="2">
         <v>117</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="118" ht="30" customHeight="1" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" customHeight="1">
       <c r="A118" s="2">
         <v>118</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="119" ht="30" customHeight="1" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" customHeight="1">
       <c r="A119" s="2">
         <v>119</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="120" ht="30" customHeight="1" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" customHeight="1">
       <c r="A120" s="2">
         <v>120</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="121" ht="30" customHeight="1" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" customHeight="1">
       <c r="A121" s="2">
         <v>121</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" ht="30" customHeight="1" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" customHeight="1">
       <c r="A122" s="2">
         <v>122</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" ht="30" customHeight="1" spans="1:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" customHeight="1">
       <c r="A123" s="2">
         <v>123</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" ht="30" customHeight="1" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" customHeight="1">
       <c r="A124" s="2">
         <v>124</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" ht="30" customHeight="1" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30" customHeight="1">
       <c r="A125" s="2">
         <v>125</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="126" ht="30" customHeight="1" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" customHeight="1">
       <c r="A126" s="2">
         <v>126</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" ht="30" customHeight="1" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" customHeight="1">
       <c r="A127" s="2">
         <v>127</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="128" ht="30" customHeight="1" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" customHeight="1">
       <c r="A128" s="2">
         <v>128</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" ht="30" customHeight="1" spans="1:3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" customHeight="1">
       <c r="A129" s="2">
         <v>129</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" ht="30" customHeight="1" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" customHeight="1">
       <c r="A130" s="2">
         <v>130</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="131" ht="30" customHeight="1" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" customHeight="1">
       <c r="A131" s="2">
         <v>131</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="132" ht="30" customHeight="1" spans="1:3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30" customHeight="1">
       <c r="A132" s="2">
         <v>132</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="133" ht="30" customHeight="1" spans="1:3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" customHeight="1">
       <c r="A133" s="2">
         <v>133</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" ht="30" customHeight="1" spans="1:3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" customHeight="1">
       <c r="A134" s="2">
         <v>134</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" ht="30" customHeight="1" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" customHeight="1">
       <c r="A135" s="2">
         <v>135</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="136" ht="30" customHeight="1" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" customHeight="1">
       <c r="A136" s="2">
         <v>136</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="137" ht="30" customHeight="1" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" customHeight="1">
       <c r="A137" s="2">
         <v>137</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="138" ht="30" customHeight="1" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" customHeight="1">
       <c r="A138" s="2">
         <v>138</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139" ht="30" customHeight="1" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" customHeight="1">
       <c r="A139" s="2">
         <v>139</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="140" ht="30" customHeight="1" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" customHeight="1">
       <c r="A140" s="2">
         <v>140</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="141" ht="30" customHeight="1" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" customHeight="1">
       <c r="A141" s="2">
         <v>141</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" ht="30" customHeight="1" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" customHeight="1">
       <c r="A142" s="2">
         <v>142</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="143" ht="30" customHeight="1" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" customHeight="1">
       <c r="A143" s="2">
         <v>143</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="144" ht="30" customHeight="1" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30" customHeight="1">
       <c r="A144" s="2">
         <v>144</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="145" ht="30" customHeight="1" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30" customHeight="1">
       <c r="A145" s="2">
         <v>145</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="146" ht="30" customHeight="1" spans="1:3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" customHeight="1">
       <c r="A146" s="2">
         <v>146</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="147" ht="30" customHeight="1" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" customHeight="1">
       <c r="A147" s="2">
         <v>147</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" ht="30" customHeight="1" spans="1:3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" customHeight="1">
       <c r="A148" s="2">
         <v>148</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="149" ht="30" customHeight="1" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" customHeight="1">
       <c r="A149" s="2">
         <v>149</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="150" ht="30" customHeight="1" spans="1:3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" customHeight="1">
       <c r="A150" s="2">
         <v>150</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="151" ht="30" customHeight="1" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" customHeight="1">
       <c r="A151" s="2">
         <v>151</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="152" ht="30" customHeight="1" spans="1:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30" customHeight="1">
       <c r="A152" s="2">
         <v>152</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="153" ht="30" customHeight="1" spans="1:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" customHeight="1">
       <c r="A153" s="2">
         <v>153</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="154" ht="30" customHeight="1" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30" customHeight="1">
       <c r="A154" s="2">
         <v>154</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="155" ht="30" customHeight="1" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30" customHeight="1">
       <c r="A155" s="2">
         <v>155</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="156" ht="30" customHeight="1" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30" customHeight="1">
       <c r="A156" s="2">
         <v>156</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="157" ht="30" customHeight="1" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" customHeight="1">
       <c r="A157" s="2">
         <v>157</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="158" ht="30" customHeight="1" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30" customHeight="1">
       <c r="A158" s="2">
         <v>158</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="159" ht="30" customHeight="1" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" customHeight="1">
       <c r="A159" s="2">
         <v>159</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="160" ht="30" customHeight="1" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" customHeight="1">
       <c r="A160" s="2">
         <v>160</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="161" ht="30" customHeight="1" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" customHeight="1">
       <c r="A161" s="2">
         <v>161</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="162" ht="30" customHeight="1" spans="1:3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30" customHeight="1">
       <c r="A162" s="2">
         <v>162</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="163" ht="30" customHeight="1" spans="1:3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30" customHeight="1">
       <c r="A163" s="2">
         <v>163</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="164" ht="30" customHeight="1" spans="1:3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" customHeight="1">
       <c r="A164" s="2">
         <v>164</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="165" ht="30" customHeight="1" spans="1:3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" customHeight="1">
       <c r="A165" s="2">
         <v>165</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="166" ht="30" customHeight="1" spans="1:3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" customHeight="1">
       <c r="A166" s="2">
         <v>166</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="167" ht="30" customHeight="1" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" customHeight="1">
       <c r="A167" s="2">
         <v>167</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="168" ht="30" customHeight="1" spans="1:3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" customHeight="1">
       <c r="A168" s="2">
         <v>168</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="169" ht="30" customHeight="1" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" customHeight="1">
       <c r="A169" s="2">
         <v>169</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="170" ht="30" customHeight="1" spans="1:3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" customHeight="1">
       <c r="A170" s="2">
         <v>170</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="171" ht="30" customHeight="1" spans="1:3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" customHeight="1">
       <c r="A171" s="2">
         <v>171</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="172" ht="30" customHeight="1" spans="1:3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30" customHeight="1">
       <c r="A172" s="2">
         <v>172</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="173" ht="30" customHeight="1" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30" customHeight="1">
       <c r="A173" s="2">
         <v>173</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="174" ht="30" customHeight="1" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" customHeight="1">
       <c r="A174" s="2">
         <v>174</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="175" ht="30" customHeight="1" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" customHeight="1">
       <c r="A175" s="2">
         <v>175</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="176" ht="30" customHeight="1" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30" customHeight="1">
       <c r="A176" s="2">
         <v>176</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" ht="30" customHeight="1" spans="1:3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" customHeight="1">
       <c r="A177" s="2">
         <v>177</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="178" ht="30" customHeight="1" spans="1:3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" customHeight="1">
       <c r="A178" s="2">
         <v>178</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="179" ht="30" customHeight="1" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" customHeight="1">
       <c r="A179" s="2">
         <v>179</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="180" ht="30" customHeight="1" spans="1:3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" customHeight="1">
       <c r="A180" s="2">
         <v>180</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="181" ht="30" customHeight="1" spans="1:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="30" customHeight="1">
       <c r="A181" s="2">
         <v>181</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="182" ht="30" customHeight="1" spans="1:3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30" customHeight="1">
       <c r="A182" s="2">
         <v>182</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="183" ht="30" customHeight="1" spans="1:3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="30" customHeight="1">
       <c r="A183" s="2">
         <v>183</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="184" ht="30" customHeight="1" spans="1:3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" customHeight="1">
       <c r="A184" s="2">
         <v>184</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="185" ht="30" customHeight="1" spans="1:3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" customHeight="1">
       <c r="A185" s="2">
         <v>185</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="186" ht="30" customHeight="1" spans="1:3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" customHeight="1">
       <c r="A186" s="2">
         <v>186</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="187" ht="30" customHeight="1" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" customHeight="1">
       <c r="A187" s="2">
         <v>187</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="188" ht="30" customHeight="1" spans="1:3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30" customHeight="1">
       <c r="A188" s="2">
         <v>188</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="189" ht="30" customHeight="1" spans="1:3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" customHeight="1">
       <c r="A189" s="2">
         <v>189</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="190" ht="30" customHeight="1" spans="1:3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" customHeight="1">
       <c r="A190" s="2">
         <v>190</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="191" ht="30" customHeight="1" spans="1:3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" customHeight="1">
       <c r="A191" s="2">
         <v>191</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="192" ht="30" customHeight="1" spans="1:3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30" customHeight="1">
       <c r="A192" s="2">
         <v>192</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="193" ht="30" customHeight="1" spans="1:3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30" customHeight="1">
       <c r="A193" s="2">
         <v>193</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="194" ht="30" customHeight="1" spans="1:3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" customHeight="1">
       <c r="A194" s="2">
         <v>194</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="195" ht="30" customHeight="1" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" customHeight="1">
       <c r="A195" s="2">
         <v>195</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="196" ht="30" customHeight="1" spans="1:3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" customHeight="1">
       <c r="A196" s="2">
         <v>196</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" ht="30" customHeight="1" spans="1:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="30" customHeight="1">
       <c r="A197" s="2">
         <v>197</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="198" ht="30" customHeight="1" spans="1:3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30" customHeight="1">
       <c r="A198" s="2">
         <v>198</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="199" ht="30" customHeight="1" spans="1:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="30" customHeight="1">
       <c r="A199" s="3">
         <v>199</v>
       </c>
@@ -5832,27 +5223,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="200" ht="30" customHeight="1" spans="1:3">
+    <row r="200" spans="1:3" ht="30" customHeight="1">
       <c r="A200" s="2">
         <f t="shared" ref="A200:A212" si="0">A199+1</f>
         <v>200</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="201" ht="30" customHeight="1" spans="1:3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="30" customHeight="1">
       <c r="A201" s="2">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="202" ht="30" customHeight="1" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" customHeight="1">
       <c r="A202" s="2">
         <f t="shared" si="0"/>
         <v>202</v>
@@ -5862,109 +5253,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" ht="30" customHeight="1" spans="1:3">
+    <row r="203" spans="1:3" ht="30" customHeight="1">
       <c r="A203" s="2">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="204" ht="30" customHeight="1" spans="1:3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="30" customHeight="1">
       <c r="A204" s="2">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="205" ht="30" customHeight="1" spans="1:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="30" customHeight="1">
       <c r="A205" s="2">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="206" ht="30" customHeight="1" spans="1:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="30" customHeight="1">
       <c r="A206" s="2">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="207" ht="30" customHeight="1" spans="1:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" customHeight="1">
       <c r="A207" s="2">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="208" ht="30" customHeight="1" spans="1:3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="30" customHeight="1">
       <c r="A208" s="2">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="209" ht="30" customHeight="1" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" customHeight="1">
       <c r="A209" s="2">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="210" ht="30" customHeight="1" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" customHeight="1">
       <c r="A210" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="211" ht="30" customHeight="1" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" customHeight="1">
       <c r="A211" s="3">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="212" ht="30" customHeight="1" spans="1:3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30" customHeight="1">
       <c r="A212" s="3">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/kosakata.xlsx
+++ b/kosakata.xlsx
@@ -1,44 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\bahasa arab\kosakata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE758940-2B95-44F9-B314-850BE48786D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="masjid" sheetId="1" r:id="rId1"/>
     <sheet name="asrama" sheetId="2" r:id="rId2"/>
+    <sheet name="dapur" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">asrama!$A$1:$C$199</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">masjid!$A$1:$C$199</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">dapur!$A$1:$C$150</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="547">
   <si>
     <t>Ayo kita beli jajan</t>
   </si>
@@ -1250,13 +1233,448 @@
   </si>
   <si>
     <t>Siapa di dalam?</t>
+  </si>
+  <si>
+    <t>Centongnya mana?</t>
+  </si>
+  <si>
+    <t>Eh, ambilkan air nah</t>
+  </si>
+  <si>
+    <t>Eh, nasinya berhamburan tuh</t>
+  </si>
+  <si>
+    <t>Eh, ada siapa di dalam?</t>
+  </si>
+  <si>
+    <t>Kamu dipanggil Bulek</t>
+  </si>
+  <si>
+    <t>Kamu ngambil banyak banget</t>
+  </si>
+  <si>
+    <t>Tumben ngambil dikit</t>
+  </si>
+  <si>
+    <t>Ustadz, izin ambil buah di dapur (putri: Ustadzah)</t>
+  </si>
+  <si>
+    <t>Ambil aja jatahku</t>
+  </si>
+  <si>
+    <t>Minta tolong ambilkan air minum</t>
+  </si>
+  <si>
+    <t>Piringku hilang, lupa ditaro di mana</t>
+  </si>
+  <si>
+    <t>Jangan makan di situ, kotor</t>
+  </si>
+  <si>
+    <t>Siapa saja yang belum makan?</t>
+  </si>
+  <si>
+    <t>Sudah ada kah makanannya?</t>
+  </si>
+  <si>
+    <t>Nggak boleh ngomongin orang, dosa</t>
+  </si>
+  <si>
+    <t>Meja disimpuni</t>
+  </si>
+  <si>
+    <t>Papan tulisnya dihapus</t>
+  </si>
+  <si>
+    <t>Mana piringku?</t>
+  </si>
+  <si>
+    <t>Di dapur ada orang kah?</t>
+  </si>
+  <si>
+    <t>Parah banget kamu ambil jatah orang</t>
+  </si>
+  <si>
+    <t>Adakah piring?</t>
+  </si>
+  <si>
+    <t>Mana garpu?</t>
+  </si>
+  <si>
+    <t>Eh, jangan ribut</t>
+  </si>
+  <si>
+    <t>Sudah datang kah makanannya?</t>
+  </si>
+  <si>
+    <t>Titip sendok nah</t>
+  </si>
+  <si>
+    <t>Air galon habis</t>
+  </si>
+  <si>
+    <t>Siapa yang piket rak piring?</t>
+  </si>
+  <si>
+    <t>Jangan buang-buang makanan</t>
+  </si>
+  <si>
+    <t>Lauknya di mana?</t>
+  </si>
+  <si>
+    <t>Siapa piket makan?</t>
+  </si>
+  <si>
+    <t>Siapa piket ruang makan?</t>
+  </si>
+  <si>
+    <t>Cuci piring, cuci piring</t>
+  </si>
+  <si>
+    <t>Taro piring di wastafel</t>
+  </si>
+  <si>
+    <t>Bersihkan tempat galon</t>
+  </si>
+  <si>
+    <t>Iya Bulek</t>
+  </si>
+  <si>
+    <t>Siapa yang belum makan?</t>
+  </si>
+  <si>
+    <t>Jangan maruk</t>
+  </si>
+  <si>
+    <t>Yang nggak makan, bayar 10 ribu</t>
+  </si>
+  <si>
+    <t>Makan sayurnya</t>
+  </si>
+  <si>
+    <t>Ada ular</t>
+  </si>
+  <si>
+    <t>Ada kebakaran</t>
+  </si>
+  <si>
+    <t>Busuk</t>
+  </si>
+  <si>
+    <t>Siapa belum makan?</t>
+  </si>
+  <si>
+    <t>Ada akhwat (putri: ikhwan)</t>
+  </si>
+  <si>
+    <t>Eh, piringnya pecah</t>
+  </si>
+  <si>
+    <t>Airnya masuk kamar Ustadzah (putra: Ustadz)</t>
+  </si>
+  <si>
+    <t>Ambilkan makan</t>
+  </si>
+  <si>
+    <t>Sendoknya habis</t>
+  </si>
+  <si>
+    <t>Ramenya</t>
+  </si>
+  <si>
+    <t>Siapa piket dapur?</t>
+  </si>
+  <si>
+    <t>Tolong ambilkan minum nah</t>
+  </si>
+  <si>
+    <t>Yang piket makan, bagikan</t>
+  </si>
+  <si>
+    <t>Sudah ambilkan untuk Ustadzah kah? (putra: Ustadz)</t>
+  </si>
+  <si>
+    <t>Bersihkan dapurnya</t>
+  </si>
+  <si>
+    <t>Ada biawak di dapur</t>
+  </si>
+  <si>
+    <t>Jangan buang-buang minyak</t>
+  </si>
+  <si>
+    <t>Kompornya rusak</t>
+  </si>
+  <si>
+    <t>Taroh gayung di dapur</t>
+  </si>
+  <si>
+    <t>Itu nah ada nasi di piringmu</t>
+  </si>
+  <si>
+    <t>Bagikan, bagikan</t>
+  </si>
+  <si>
+    <t>Sambelnya enak kah?</t>
+  </si>
+  <si>
+    <t>Yang masih di asrama, cepatin makan</t>
+  </si>
+  <si>
+    <t>Titip piringku nah</t>
+  </si>
+  <si>
+    <t>Makan apa?</t>
+  </si>
+  <si>
+    <t>Di dapur ada siapa?</t>
+  </si>
+  <si>
+    <t>Ada air?</t>
+  </si>
+  <si>
+    <t>Makan nasi dan ikan</t>
+  </si>
+  <si>
+    <t>Aku belum makan</t>
+  </si>
+  <si>
+    <t>Ada Bulek kah?</t>
+  </si>
+  <si>
+    <t>Pelnya ada di dapur</t>
+  </si>
+  <si>
+    <t>Jangan pakai sapu dapur</t>
+  </si>
+  <si>
+    <t>Masak dapur izin dulu</t>
+  </si>
+  <si>
+    <t>Woi, kalau ngantri jangan nyerobot</t>
+  </si>
+  <si>
+    <t>Sana, ini tempatku</t>
+  </si>
+  <si>
+    <t>Nasimu berhamburan</t>
+  </si>
+  <si>
+    <t>Aku mau titip makanan</t>
+  </si>
+  <si>
+    <t>Kalau makan, jangan kayak anak kecil</t>
+  </si>
+  <si>
+    <t>Hancurkan, hancurkan, mantap</t>
+  </si>
+  <si>
+    <t>Wow, makan</t>
+  </si>
+  <si>
+    <t>Hayo, mau ngapain?</t>
+  </si>
+  <si>
+    <t>Cepat, cepat</t>
+  </si>
+  <si>
+    <t>Enak aja</t>
+  </si>
+  <si>
+    <t>Dapurnya dibersihkan</t>
+  </si>
+  <si>
+    <t>Banjir di dapur</t>
+  </si>
+  <si>
+    <t>Izin masuk dapur</t>
+  </si>
+  <si>
+    <t>Izin naro makanan di kulkas</t>
+  </si>
+  <si>
+    <t>Piring berhamburan</t>
+  </si>
+  <si>
+    <t>Makan di mana?</t>
+  </si>
+  <si>
+    <t>Titip piring dong</t>
+  </si>
+  <si>
+    <t>Ambilin minum, haus</t>
+  </si>
+  <si>
+    <t>Minta dikit minuman, haus</t>
+  </si>
+  <si>
+    <t>Jangan rebutan</t>
+  </si>
+  <si>
+    <t>Sendok nasi di mana?</t>
+  </si>
+  <si>
+    <t>Siapa yang piket makan?</t>
+  </si>
+  <si>
+    <t>Ngantri pang</t>
+  </si>
+  <si>
+    <t>Nggak usah berisik</t>
+  </si>
+  <si>
+    <t>Eh, titip makan nah</t>
+  </si>
+  <si>
+    <t>Apa makannya?</t>
+  </si>
+  <si>
+    <t>Makannya per-angkatan kah?</t>
+  </si>
+  <si>
+    <t>Tolong ambilkan piring nah</t>
+  </si>
+  <si>
+    <t>Bantu masak nah</t>
+  </si>
+  <si>
+    <t>Eh, gelasnya jatuh</t>
+  </si>
+  <si>
+    <t>Siapa ambil makan?</t>
+  </si>
+  <si>
+    <t>Ada piring pecah</t>
+  </si>
+  <si>
+    <t>Airnya tumpah</t>
+  </si>
+  <si>
+    <t>Siapa yang cuci piring?</t>
+  </si>
+  <si>
+    <t>Makanannya apa?</t>
+  </si>
+  <si>
+    <t>Tolong pang ambilkan sendok</t>
+  </si>
+  <si>
+    <t>Satu orang dapat berapa?</t>
+  </si>
+  <si>
+    <t>Angkat galon pang</t>
+  </si>
+  <si>
+    <t>Ustadzah sudah diambilkan?</t>
+  </si>
+  <si>
+    <t>Makanan kalian di atas galon ya</t>
+  </si>
+  <si>
+    <t>Eh, tolong ambilkan sendok nah</t>
+  </si>
+  <si>
+    <t>Tolong tarokan di situ dong</t>
+  </si>
+  <si>
+    <t>Eh, minjam gelasmu ya</t>
+  </si>
+  <si>
+    <t>Tolong ambilkan piring</t>
+  </si>
+  <si>
+    <t>Eh, piringnya jatuh</t>
+  </si>
+  <si>
+    <t>Tolong ambilkan gelas</t>
+  </si>
+  <si>
+    <t>Minta sendok</t>
+  </si>
+  <si>
+    <t>Mau makan</t>
+  </si>
+  <si>
+    <t>Ruang makannya licin</t>
+  </si>
+  <si>
+    <t>Cepat makannya</t>
+  </si>
+  <si>
+    <t>Kamu kah tadi yang masak?</t>
+  </si>
+  <si>
+    <t>Nitip ambilkan nasiku</t>
+  </si>
+  <si>
+    <t>Ayo makan sama-sama</t>
+  </si>
+  <si>
+    <t>Rapkan wastafelnya</t>
+  </si>
+  <si>
+    <t>Siapa piket rak piring?</t>
+  </si>
+  <si>
+    <t>Cuci piringnya</t>
+  </si>
+  <si>
+    <t>Sampahnya hamburan</t>
+  </si>
+  <si>
+    <t>Nitip makan pang</t>
+  </si>
+  <si>
+    <t>Tolong ambilkan sendok</t>
+  </si>
+  <si>
+    <t>Di mana sendok nasi?</t>
+  </si>
+  <si>
+    <t>Ayo memasak</t>
+  </si>
+  <si>
+    <t>Titip minum</t>
+  </si>
+  <si>
+    <t>Cuci piring sendiri</t>
+  </si>
+  <si>
+    <t>Awas nasinya berhamburan</t>
+  </si>
+  <si>
+    <t>Ambil lauknya</t>
+  </si>
+  <si>
+    <t>Piring kaca</t>
+  </si>
+  <si>
+    <t>Nasinya habis</t>
+  </si>
+  <si>
+    <t>Lauknya basi</t>
+  </si>
+  <si>
+    <t>Nitip ambilin nasi ya</t>
+  </si>
+  <si>
+    <t>Apa lauknya?</t>
+  </si>
+  <si>
+    <t>Antri untuk sisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,16 +1682,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1310,9 +2058,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1329,17 +2319,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1597,28 +2631,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.4222222222222" customWidth="1"/>
+    <col min="3" max="3" width="39.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:3">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1627,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" spans="1:3">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -1636,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" spans="1:3">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -1645,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1">
+    <row r="4" ht="30" customHeight="1" spans="1:3">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -1654,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
+    <row r="5" ht="30" customHeight="1" spans="1:3">
       <c r="A5" s="5">
         <v>5</v>
       </c>
@@ -1663,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
+    <row r="6" ht="30" customHeight="1" spans="1:3">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -1672,7 +2705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" spans="1:3">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -1681,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1">
+    <row r="8" ht="30" customHeight="1" spans="1:3">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1690,7 +2723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1">
+    <row r="9" ht="30" customHeight="1" spans="1:3">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -1699,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1">
+    <row r="10" ht="30" customHeight="1" spans="1:3">
       <c r="A10" s="5">
         <v>10</v>
       </c>
@@ -1708,7 +2741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1">
+    <row r="11" ht="30" customHeight="1" spans="1:3">
       <c r="A11" s="5">
         <v>11</v>
       </c>
@@ -1717,7 +2750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1">
+    <row r="12" ht="30" customHeight="1" spans="1:3">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -1726,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1">
+    <row r="13" ht="30" customHeight="1" spans="1:3">
       <c r="A13" s="5">
         <v>13</v>
       </c>
@@ -1735,7 +2768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1">
+    <row r="14" ht="30" customHeight="1" spans="1:3">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -1744,7 +2777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1" spans="1:3">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -1753,7 +2786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1">
+    <row r="16" ht="30" customHeight="1" spans="1:3">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -1762,7 +2795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1" spans="1:3">
       <c r="A17" s="5">
         <v>17</v>
       </c>
@@ -1771,7 +2804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
+    <row r="18" ht="30" customHeight="1" spans="1:3">
       <c r="A18" s="5">
         <v>18</v>
       </c>
@@ -1780,7 +2813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1">
+    <row r="19" ht="30" customHeight="1" spans="1:3">
       <c r="A19" s="5">
         <v>19</v>
       </c>
@@ -1789,7 +2822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1">
+    <row r="20" ht="30" customHeight="1" spans="1:3">
       <c r="A20" s="5">
         <v>20</v>
       </c>
@@ -1798,7 +2831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
+    <row r="21" ht="30" customHeight="1" spans="1:3">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -1807,7 +2840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
+    <row r="22" ht="30" customHeight="1" spans="1:3">
       <c r="A22" s="5">
         <v>22</v>
       </c>
@@ -1816,7 +2849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+    <row r="23" ht="30" customHeight="1" spans="1:3">
       <c r="A23" s="5">
         <v>23</v>
       </c>
@@ -1825,7 +2858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
+    <row r="24" ht="30" customHeight="1" spans="1:3">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -1834,7 +2867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
+    <row r="25" ht="30" customHeight="1" spans="1:3">
       <c r="A25" s="5">
         <v>25</v>
       </c>
@@ -1843,7 +2876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
+    <row r="26" ht="30" customHeight="1" spans="1:3">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -1852,7 +2885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
+    <row r="27" ht="30" customHeight="1" spans="1:3">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -1861,7 +2894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
+    <row r="28" ht="30" customHeight="1" spans="1:3">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -1870,7 +2903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1">
+    <row r="29" ht="30" customHeight="1" spans="1:3">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -1879,7 +2912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1">
+    <row r="30" ht="30" customHeight="1" spans="1:3">
       <c r="A30" s="5">
         <v>30</v>
       </c>
@@ -1888,7 +2921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1">
+    <row r="31" ht="30" customHeight="1" spans="1:3">
       <c r="A31" s="5">
         <v>31</v>
       </c>
@@ -1897,7 +2930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1">
+    <row r="32" ht="30" customHeight="1" spans="1:3">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -1906,7 +2939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
+    <row r="33" ht="30" customHeight="1" spans="1:3">
       <c r="A33" s="5">
         <v>33</v>
       </c>
@@ -1915,7 +2948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
+    <row r="34" ht="30" customHeight="1" spans="1:3">
       <c r="A34" s="5">
         <v>34</v>
       </c>
@@ -1924,7 +2957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
+    <row r="35" ht="30" customHeight="1" spans="1:3">
       <c r="A35" s="5">
         <v>35</v>
       </c>
@@ -1933,7 +2966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
+    <row r="36" ht="30" customHeight="1" spans="1:3">
       <c r="A36" s="5">
         <v>36</v>
       </c>
@@ -1942,7 +2975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1">
+    <row r="37" ht="30" customHeight="1" spans="1:3">
       <c r="A37" s="5">
         <v>37</v>
       </c>
@@ -1951,7 +2984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
+    <row r="38" ht="30" customHeight="1" spans="1:3">
       <c r="A38" s="5">
         <v>38</v>
       </c>
@@ -1960,7 +2993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1">
+    <row r="39" ht="30" customHeight="1" spans="1:3">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -1969,7 +3002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
+    <row r="40" ht="30" customHeight="1" spans="1:3">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -1978,7 +3011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1">
+    <row r="41" ht="30" customHeight="1" spans="1:3">
       <c r="A41" s="5">
         <v>41</v>
       </c>
@@ -1987,7 +3020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
+    <row r="42" ht="30" customHeight="1" spans="1:3">
       <c r="A42" s="5">
         <v>42</v>
       </c>
@@ -1996,7 +3029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
+    <row r="43" ht="30" customHeight="1" spans="1:3">
       <c r="A43" s="5">
         <v>43</v>
       </c>
@@ -2005,7 +3038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1">
+    <row r="44" ht="30" customHeight="1" spans="1:3">
       <c r="A44" s="5">
         <v>44</v>
       </c>
@@ -2014,7 +3047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1">
+    <row r="45" ht="30" customHeight="1" spans="1:3">
       <c r="A45" s="5">
         <v>45</v>
       </c>
@@ -2023,7 +3056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1">
+    <row r="46" ht="30" customHeight="1" spans="1:3">
       <c r="A46" s="5">
         <v>46</v>
       </c>
@@ -2032,7 +3065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" customHeight="1">
+    <row r="47" ht="30" customHeight="1" spans="1:3">
       <c r="A47" s="5">
         <v>47</v>
       </c>
@@ -2041,7 +3074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" customHeight="1">
+    <row r="48" ht="30" customHeight="1" spans="1:3">
       <c r="A48" s="5">
         <v>48</v>
       </c>
@@ -2050,7 +3083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1">
+    <row r="49" ht="30" customHeight="1" spans="1:3">
       <c r="A49" s="5">
         <v>49</v>
       </c>
@@ -2059,7 +3092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1">
+    <row r="50" ht="30" customHeight="1" spans="1:3">
       <c r="A50" s="5">
         <v>50</v>
       </c>
@@ -2068,7 +3101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1">
+    <row r="51" ht="30" customHeight="1" spans="1:3">
       <c r="A51" s="5">
         <v>51</v>
       </c>
@@ -2077,7 +3110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1">
+    <row r="52" ht="30" customHeight="1" spans="1:3">
       <c r="A52" s="5">
         <v>52</v>
       </c>
@@ -2086,7 +3119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1">
+    <row r="53" ht="30" customHeight="1" spans="1:3">
       <c r="A53" s="5">
         <v>53</v>
       </c>
@@ -2095,7 +3128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1">
+    <row r="54" ht="30" customHeight="1" spans="1:3">
       <c r="A54" s="5">
         <v>54</v>
       </c>
@@ -2104,7 +3137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1">
+    <row r="55" ht="30" customHeight="1" spans="1:3">
       <c r="A55" s="5">
         <v>55</v>
       </c>
@@ -2113,7 +3146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1">
+    <row r="56" ht="30" customHeight="1" spans="1:3">
       <c r="A56" s="5">
         <v>56</v>
       </c>
@@ -2122,7 +3155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1">
+    <row r="57" ht="30" customHeight="1" spans="1:3">
       <c r="A57" s="5">
         <v>57</v>
       </c>
@@ -2131,7 +3164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1">
+    <row r="58" ht="30" customHeight="1" spans="1:3">
       <c r="A58" s="5">
         <v>58</v>
       </c>
@@ -2140,7 +3173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1">
+    <row r="59" ht="30" customHeight="1" spans="1:3">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -2149,7 +3182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" customHeight="1">
+    <row r="60" ht="30" customHeight="1" spans="1:3">
       <c r="A60" s="5">
         <v>60</v>
       </c>
@@ -2158,7 +3191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" customHeight="1">
+    <row r="61" ht="30" customHeight="1" spans="1:3">
       <c r="A61" s="5">
         <v>61</v>
       </c>
@@ -2167,7 +3200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" customHeight="1">
+    <row r="62" ht="30" customHeight="1" spans="1:3">
       <c r="A62" s="5">
         <v>62</v>
       </c>
@@ -2176,7 +3209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" customHeight="1">
+    <row r="63" ht="30" customHeight="1" spans="1:3">
       <c r="A63" s="5">
         <v>63</v>
       </c>
@@ -2185,7 +3218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1">
+    <row r="64" ht="30" customHeight="1" spans="1:3">
       <c r="A64" s="5">
         <v>64</v>
       </c>
@@ -2194,7 +3227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1">
+    <row r="65" ht="30" customHeight="1" spans="1:3">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -2203,7 +3236,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" customHeight="1">
+    <row r="66" ht="30" customHeight="1" spans="1:3">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -2212,7 +3245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" customHeight="1">
+    <row r="67" ht="30" customHeight="1" spans="1:3">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -2221,7 +3254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" customHeight="1">
+    <row r="68" ht="30" customHeight="1" spans="1:3">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -2230,7 +3263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" customHeight="1">
+    <row r="69" ht="30" customHeight="1" spans="1:3">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -2239,7 +3272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1">
+    <row r="70" ht="30" customHeight="1" spans="1:3">
       <c r="A70" s="5">
         <v>70</v>
       </c>
@@ -2248,7 +3281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" customHeight="1">
+    <row r="71" ht="30" customHeight="1" spans="1:3">
       <c r="A71" s="5">
         <v>71</v>
       </c>
@@ -2257,7 +3290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1">
+    <row r="72" ht="30" customHeight="1" spans="1:3">
       <c r="A72" s="5">
         <v>72</v>
       </c>
@@ -2266,7 +3299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" customHeight="1">
+    <row r="73" ht="30" customHeight="1" spans="1:3">
       <c r="A73" s="5">
         <v>73</v>
       </c>
@@ -2275,7 +3308,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" customHeight="1">
+    <row r="74" ht="30" customHeight="1" spans="1:3">
       <c r="A74" s="5">
         <v>74</v>
       </c>
@@ -2284,7 +3317,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30" customHeight="1">
+    <row r="75" ht="30" customHeight="1" spans="1:3">
       <c r="A75" s="5">
         <v>75</v>
       </c>
@@ -2293,7 +3326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" customHeight="1">
+    <row r="76" ht="30" customHeight="1" spans="1:3">
       <c r="A76" s="5">
         <v>76</v>
       </c>
@@ -2302,7 +3335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30" customHeight="1">
+    <row r="77" ht="30" customHeight="1" spans="1:3">
       <c r="A77" s="5">
         <v>77</v>
       </c>
@@ -2311,7 +3344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" customHeight="1">
+    <row r="78" ht="30" customHeight="1" spans="1:3">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -2320,7 +3353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" customHeight="1">
+    <row r="79" ht="30" customHeight="1" spans="1:3">
       <c r="A79" s="5">
         <v>79</v>
       </c>
@@ -2329,7 +3362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" customHeight="1">
+    <row r="80" ht="30" customHeight="1" spans="1:3">
       <c r="A80" s="5">
         <v>80</v>
       </c>
@@ -2338,7 +3371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1">
+    <row r="81" ht="30" customHeight="1" spans="1:3">
       <c r="A81" s="5">
         <v>81</v>
       </c>
@@ -2347,7 +3380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1">
+    <row r="82" ht="30" customHeight="1" spans="1:3">
       <c r="A82" s="5">
         <v>82</v>
       </c>
@@ -2356,7 +3389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1">
+    <row r="83" ht="30" customHeight="1" spans="1:3">
       <c r="A83" s="5">
         <v>83</v>
       </c>
@@ -2365,7 +3398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1">
+    <row r="84" ht="30" customHeight="1" spans="1:3">
       <c r="A84" s="5">
         <v>84</v>
       </c>
@@ -2374,7 +3407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1">
+    <row r="85" ht="30" customHeight="1" spans="1:3">
       <c r="A85" s="5">
         <v>85</v>
       </c>
@@ -2383,7 +3416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1">
+    <row r="86" ht="30" customHeight="1" spans="1:3">
       <c r="A86" s="5">
         <v>86</v>
       </c>
@@ -2392,7 +3425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1">
+    <row r="87" ht="30" customHeight="1" spans="1:3">
       <c r="A87" s="5">
         <v>87</v>
       </c>
@@ -2401,7 +3434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1">
+    <row r="88" ht="30" customHeight="1" spans="1:3">
       <c r="A88" s="5">
         <v>88</v>
       </c>
@@ -2410,7 +3443,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1">
+    <row r="89" ht="30" customHeight="1" spans="1:3">
       <c r="A89" s="5">
         <v>89</v>
       </c>
@@ -2419,7 +3452,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1">
+    <row r="90" ht="30" customHeight="1" spans="1:3">
       <c r="A90" s="5">
         <v>90</v>
       </c>
@@ -2428,7 +3461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1">
+    <row r="91" ht="30" customHeight="1" spans="1:3">
       <c r="A91" s="5">
         <v>91</v>
       </c>
@@ -2437,7 +3470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1">
+    <row r="92" ht="30" customHeight="1" spans="1:3">
       <c r="A92" s="5">
         <v>92</v>
       </c>
@@ -2446,7 +3479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1">
+    <row r="93" ht="30" customHeight="1" spans="1:3">
       <c r="A93" s="5">
         <v>93</v>
       </c>
@@ -2455,7 +3488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1">
+    <row r="94" ht="30" customHeight="1" spans="1:3">
       <c r="A94" s="5">
         <v>94</v>
       </c>
@@ -2464,7 +3497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1">
+    <row r="95" ht="30" customHeight="1" spans="1:3">
       <c r="A95" s="5">
         <v>95</v>
       </c>
@@ -2473,7 +3506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1">
+    <row r="96" ht="30" customHeight="1" spans="1:3">
       <c r="A96" s="5">
         <v>96</v>
       </c>
@@ -2482,7 +3515,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30" customHeight="1">
+    <row r="97" ht="30" customHeight="1" spans="1:3">
       <c r="A97" s="5">
         <v>97</v>
       </c>
@@ -2491,7 +3524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1">
+    <row r="98" ht="30" customHeight="1" spans="1:3">
       <c r="A98" s="5">
         <v>98</v>
       </c>
@@ -2500,7 +3533,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" customHeight="1">
+    <row r="99" ht="30" customHeight="1" spans="1:3">
       <c r="A99" s="5">
         <v>99</v>
       </c>
@@ -2509,7 +3542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" customHeight="1">
+    <row r="100" ht="30" customHeight="1" spans="1:3">
       <c r="A100" s="5">
         <v>100</v>
       </c>
@@ -2518,7 +3551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" customHeight="1">
+    <row r="101" ht="30" customHeight="1" spans="1:3">
       <c r="A101" s="5">
         <v>101</v>
       </c>
@@ -2527,7 +3560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" customHeight="1">
+    <row r="102" ht="30" customHeight="1" spans="1:3">
       <c r="A102" s="5">
         <v>102</v>
       </c>
@@ -2536,7 +3569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" customHeight="1">
+    <row r="103" ht="30" customHeight="1" spans="1:3">
       <c r="A103" s="5">
         <v>103</v>
       </c>
@@ -2545,7 +3578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" customHeight="1">
+    <row r="104" ht="30" customHeight="1" spans="1:3">
       <c r="A104" s="5">
         <v>104</v>
       </c>
@@ -2554,7 +3587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="30" customHeight="1">
+    <row r="105" ht="30" customHeight="1" spans="1:3">
       <c r="A105" s="5">
         <v>105</v>
       </c>
@@ -2563,7 +3596,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" customHeight="1">
+    <row r="106" ht="30" customHeight="1" spans="1:3">
       <c r="A106" s="5">
         <v>106</v>
       </c>
@@ -2572,7 +3605,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1">
+    <row r="107" ht="30" customHeight="1" spans="1:3">
       <c r="A107" s="5">
         <v>107</v>
       </c>
@@ -2581,7 +3614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30" customHeight="1">
+    <row r="108" ht="30" customHeight="1" spans="1:3">
       <c r="A108" s="5">
         <v>108</v>
       </c>
@@ -2590,7 +3623,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1">
+    <row r="109" ht="30" customHeight="1" spans="1:3">
       <c r="A109" s="5">
         <v>109</v>
       </c>
@@ -2599,7 +3632,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30" customHeight="1">
+    <row r="110" ht="30" customHeight="1" spans="1:3">
       <c r="A110" s="5">
         <v>110</v>
       </c>
@@ -2608,7 +3641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1">
+    <row r="111" ht="30" customHeight="1" spans="1:3">
       <c r="A111" s="5">
         <v>111</v>
       </c>
@@ -2617,7 +3650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" customHeight="1">
+    <row r="112" ht="30" customHeight="1" spans="1:3">
       <c r="A112" s="5">
         <v>112</v>
       </c>
@@ -2626,7 +3659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" customHeight="1">
+    <row r="113" ht="30" customHeight="1" spans="1:3">
       <c r="A113" s="5">
         <v>113</v>
       </c>
@@ -2635,7 +3668,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="30" customHeight="1">
+    <row r="114" ht="30" customHeight="1" spans="1:3">
       <c r="A114" s="5">
         <v>114</v>
       </c>
@@ -2644,7 +3677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30" customHeight="1">
+    <row r="115" ht="30" customHeight="1" spans="1:3">
       <c r="A115" s="5">
         <v>115</v>
       </c>
@@ -2653,7 +3686,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30" customHeight="1">
+    <row r="116" ht="30" customHeight="1" spans="1:3">
       <c r="A116" s="5">
         <v>116</v>
       </c>
@@ -2662,7 +3695,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1">
+    <row r="117" ht="30" customHeight="1" spans="1:3">
       <c r="A117" s="5">
         <v>117</v>
       </c>
@@ -2671,7 +3704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30" customHeight="1">
+    <row r="118" ht="30" customHeight="1" spans="1:3">
       <c r="A118" s="5">
         <v>118</v>
       </c>
@@ -2680,7 +3713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30" customHeight="1">
+    <row r="119" ht="30" customHeight="1" spans="1:3">
       <c r="A119" s="5">
         <v>119</v>
       </c>
@@ -2689,7 +3722,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30" customHeight="1">
+    <row r="120" ht="30" customHeight="1" spans="1:3">
       <c r="A120" s="5">
         <v>120</v>
       </c>
@@ -2698,7 +3731,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="30" customHeight="1">
+    <row r="121" ht="30" customHeight="1" spans="1:3">
       <c r="A121" s="5">
         <v>121</v>
       </c>
@@ -2707,7 +3740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" customHeight="1">
+    <row r="122" ht="30" customHeight="1" spans="1:3">
       <c r="A122" s="5">
         <v>122</v>
       </c>
@@ -2716,7 +3749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30" customHeight="1">
+    <row r="123" ht="30" customHeight="1" spans="1:3">
       <c r="A123" s="5">
         <v>123</v>
       </c>
@@ -2725,7 +3758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30" customHeight="1">
+    <row r="124" ht="30" customHeight="1" spans="1:3">
       <c r="A124" s="5">
         <v>124</v>
       </c>
@@ -2734,7 +3767,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30" customHeight="1">
+    <row r="125" ht="30" customHeight="1" spans="1:3">
       <c r="A125" s="5">
         <v>125</v>
       </c>
@@ -2743,7 +3776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="30" customHeight="1">
+    <row r="126" ht="30" customHeight="1" spans="1:3">
       <c r="A126" s="5">
         <v>126</v>
       </c>
@@ -2752,7 +3785,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30" customHeight="1">
+    <row r="127" ht="30" customHeight="1" spans="1:3">
       <c r="A127" s="5">
         <v>127</v>
       </c>
@@ -2761,7 +3794,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30" customHeight="1">
+    <row r="128" ht="30" customHeight="1" spans="1:3">
       <c r="A128" s="5">
         <v>128</v>
       </c>
@@ -2770,7 +3803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" customHeight="1">
+    <row r="129" ht="30" customHeight="1" spans="1:3">
       <c r="A129" s="5">
         <v>129</v>
       </c>
@@ -2779,7 +3812,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30" customHeight="1">
+    <row r="130" ht="30" customHeight="1" spans="1:3">
       <c r="A130" s="5">
         <v>130</v>
       </c>
@@ -2788,7 +3821,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" customHeight="1">
+    <row r="131" ht="30" customHeight="1" spans="1:3">
       <c r="A131" s="5">
         <v>131</v>
       </c>
@@ -2797,7 +3830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="30" customHeight="1">
+    <row r="132" ht="30" customHeight="1" spans="1:3">
       <c r="A132" s="5">
         <v>132</v>
       </c>
@@ -2806,7 +3839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30" customHeight="1">
+    <row r="133" ht="30" customHeight="1" spans="1:3">
       <c r="A133" s="5">
         <v>133</v>
       </c>
@@ -2815,7 +3848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="30" customHeight="1">
+    <row r="134" ht="30" customHeight="1" spans="1:3">
       <c r="A134" s="5">
         <v>134</v>
       </c>
@@ -2824,7 +3857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" customHeight="1">
+    <row r="135" ht="30" customHeight="1" spans="1:3">
       <c r="A135" s="5">
         <v>135</v>
       </c>
@@ -2833,7 +3866,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" customHeight="1">
+    <row r="136" ht="30" customHeight="1" spans="1:3">
       <c r="A136" s="5">
         <v>136</v>
       </c>
@@ -2842,7 +3875,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30" customHeight="1">
+    <row r="137" ht="30" customHeight="1" spans="1:3">
       <c r="A137" s="5">
         <v>137</v>
       </c>
@@ -2851,7 +3884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30" customHeight="1">
+    <row r="138" ht="30" customHeight="1" spans="1:3">
       <c r="A138" s="5">
         <v>138</v>
       </c>
@@ -2860,7 +3893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" customHeight="1">
+    <row r="139" ht="30" customHeight="1" spans="1:3">
       <c r="A139" s="5">
         <v>139</v>
       </c>
@@ -2869,7 +3902,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30" customHeight="1">
+    <row r="140" ht="30" customHeight="1" spans="1:3">
       <c r="A140" s="5">
         <v>140</v>
       </c>
@@ -2878,7 +3911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" customHeight="1">
+    <row r="141" ht="30" customHeight="1" spans="1:3">
       <c r="A141" s="5">
         <v>141</v>
       </c>
@@ -2887,7 +3920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="30" customHeight="1">
+    <row r="142" ht="30" customHeight="1" spans="1:3">
       <c r="A142" s="5">
         <v>142</v>
       </c>
@@ -2896,7 +3929,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="30" customHeight="1">
+    <row r="143" ht="30" customHeight="1" spans="1:3">
       <c r="A143" s="5">
         <v>143</v>
       </c>
@@ -2905,7 +3938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" customHeight="1">
+    <row r="144" ht="30" customHeight="1" spans="1:3">
       <c r="A144" s="5">
         <v>144</v>
       </c>
@@ -2914,7 +3947,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30" customHeight="1">
+    <row r="145" ht="30" customHeight="1" spans="1:3">
       <c r="A145" s="5">
         <v>145</v>
       </c>
@@ -2923,7 +3956,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30" customHeight="1">
+    <row r="146" ht="30" customHeight="1" spans="1:3">
       <c r="A146" s="5">
         <v>146</v>
       </c>
@@ -2932,7 +3965,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" customHeight="1">
+    <row r="147" ht="30" customHeight="1" spans="1:3">
       <c r="A147" s="5">
         <v>147</v>
       </c>
@@ -2941,7 +3974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="30" customHeight="1">
+    <row r="148" ht="30" customHeight="1" spans="1:3">
       <c r="A148" s="5">
         <v>148</v>
       </c>
@@ -2950,7 +3983,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30" customHeight="1">
+    <row r="149" ht="30" customHeight="1" spans="1:3">
       <c r="A149" s="5">
         <v>149</v>
       </c>
@@ -2959,7 +3992,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" customHeight="1">
+    <row r="150" ht="30" customHeight="1" spans="1:3">
       <c r="A150" s="5">
         <v>150</v>
       </c>
@@ -2968,7 +4001,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="30" customHeight="1">
+    <row r="151" ht="30" customHeight="1" spans="1:3">
       <c r="A151" s="5">
         <v>151</v>
       </c>
@@ -2977,7 +4010,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="30" customHeight="1">
+    <row r="152" ht="30" customHeight="1" spans="1:3">
       <c r="A152" s="5">
         <v>152</v>
       </c>
@@ -2986,7 +4019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30" customHeight="1">
+    <row r="153" ht="30" customHeight="1" spans="1:3">
       <c r="A153" s="5">
         <v>153</v>
       </c>
@@ -2995,7 +4028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" customHeight="1">
+    <row r="154" ht="30" customHeight="1" spans="1:3">
       <c r="A154" s="5">
         <v>154</v>
       </c>
@@ -3004,7 +4037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30" customHeight="1">
+    <row r="155" ht="30" customHeight="1" spans="1:3">
       <c r="A155" s="5">
         <v>155</v>
       </c>
@@ -3013,7 +4046,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30" customHeight="1">
+    <row r="156" ht="30" customHeight="1" spans="1:3">
       <c r="A156" s="5">
         <v>156</v>
       </c>
@@ -3022,7 +4055,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30" customHeight="1">
+    <row r="157" ht="30" customHeight="1" spans="1:3">
       <c r="A157" s="5">
         <v>157</v>
       </c>
@@ -3031,7 +4064,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" customHeight="1">
+    <row r="158" ht="30" customHeight="1" spans="1:3">
       <c r="A158" s="5">
         <v>158</v>
       </c>
@@ -3040,7 +4073,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30" customHeight="1">
+    <row r="159" ht="30" customHeight="1" spans="1:3">
       <c r="A159" s="5">
         <v>159</v>
       </c>
@@ -3049,7 +4082,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30" customHeight="1">
+    <row r="160" ht="30" customHeight="1" spans="1:3">
       <c r="A160" s="5">
         <v>160</v>
       </c>
@@ -3058,7 +4091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30" customHeight="1">
+    <row r="161" ht="30" customHeight="1" spans="1:3">
       <c r="A161" s="5">
         <v>161</v>
       </c>
@@ -3067,7 +4100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30" customHeight="1">
+    <row r="162" ht="30" customHeight="1" spans="1:3">
       <c r="A162" s="5">
         <v>162</v>
       </c>
@@ -3076,7 +4109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30" customHeight="1">
+    <row r="163" ht="30" customHeight="1" spans="1:3">
       <c r="A163" s="5">
         <v>163</v>
       </c>
@@ -3085,7 +4118,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30" customHeight="1">
+    <row r="164" ht="30" customHeight="1" spans="1:3">
       <c r="A164" s="5">
         <v>164</v>
       </c>
@@ -3094,7 +4127,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="30" customHeight="1">
+    <row r="165" ht="30" customHeight="1" spans="1:3">
       <c r="A165" s="5">
         <v>165</v>
       </c>
@@ -3103,7 +4136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30" customHeight="1">
+    <row r="166" ht="30" customHeight="1" spans="1:3">
       <c r="A166" s="5">
         <v>166</v>
       </c>
@@ -3112,7 +4145,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30" customHeight="1">
+    <row r="167" ht="30" customHeight="1" spans="1:3">
       <c r="A167" s="5">
         <v>167</v>
       </c>
@@ -3121,7 +4154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="30" customHeight="1">
+    <row r="168" ht="30" customHeight="1" spans="1:3">
       <c r="A168" s="5">
         <v>168</v>
       </c>
@@ -3130,7 +4163,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="30" customHeight="1">
+    <row r="169" ht="30" customHeight="1" spans="1:3">
       <c r="A169" s="5">
         <v>169</v>
       </c>
@@ -3139,7 +4172,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30" customHeight="1">
+    <row r="170" ht="30" customHeight="1" spans="1:3">
       <c r="A170" s="5">
         <v>170</v>
       </c>
@@ -3148,7 +4181,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="30" customHeight="1">
+    <row r="171" ht="30" customHeight="1" spans="1:3">
       <c r="A171" s="5">
         <v>171</v>
       </c>
@@ -3157,7 +4190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="30" customHeight="1">
+    <row r="172" ht="30" customHeight="1" spans="1:3">
       <c r="A172" s="5">
         <v>172</v>
       </c>
@@ -3166,7 +4199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30" customHeight="1">
+    <row r="173" ht="30" customHeight="1" spans="1:3">
       <c r="A173" s="5">
         <v>173</v>
       </c>
@@ -3175,7 +4208,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30" customHeight="1">
+    <row r="174" ht="30" customHeight="1" spans="1:3">
       <c r="A174" s="5">
         <v>174</v>
       </c>
@@ -3184,7 +4217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30" customHeight="1">
+    <row r="175" ht="30" customHeight="1" spans="1:3">
       <c r="A175" s="5">
         <v>175</v>
       </c>
@@ -3193,7 +4226,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30" customHeight="1">
+    <row r="176" ht="30" customHeight="1" spans="1:3">
       <c r="A176" s="5">
         <v>176</v>
       </c>
@@ -3202,7 +4235,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="30" customHeight="1">
+    <row r="177" ht="30" customHeight="1" spans="1:3">
       <c r="A177" s="5">
         <v>177</v>
       </c>
@@ -3211,7 +4244,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30" customHeight="1">
+    <row r="178" ht="30" customHeight="1" spans="1:3">
       <c r="A178" s="5">
         <v>178</v>
       </c>
@@ -3220,7 +4253,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30" customHeight="1">
+    <row r="179" ht="30" customHeight="1" spans="1:3">
       <c r="A179" s="5">
         <v>179</v>
       </c>
@@ -3229,7 +4262,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30" customHeight="1">
+    <row r="180" ht="30" customHeight="1" spans="1:3">
       <c r="A180" s="5">
         <v>180</v>
       </c>
@@ -3238,7 +4271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="30" customHeight="1">
+    <row r="181" ht="30" customHeight="1" spans="1:3">
       <c r="A181" s="5">
         <v>181</v>
       </c>
@@ -3247,7 +4280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30" customHeight="1">
+    <row r="182" ht="30" customHeight="1" spans="1:3">
       <c r="A182" s="5">
         <v>182</v>
       </c>
@@ -3256,7 +4289,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" customHeight="1">
+    <row r="183" ht="30" customHeight="1" spans="1:3">
       <c r="A183" s="5">
         <v>183</v>
       </c>
@@ -3265,7 +4298,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="30" customHeight="1">
+    <row r="184" ht="30" customHeight="1" spans="1:3">
       <c r="A184" s="5">
         <v>184</v>
       </c>
@@ -3274,7 +4307,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="30" customHeight="1">
+    <row r="185" ht="30" customHeight="1" spans="1:3">
       <c r="A185" s="5">
         <v>185</v>
       </c>
@@ -3283,7 +4316,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="30" customHeight="1">
+    <row r="186" ht="30" customHeight="1" spans="1:3">
       <c r="A186" s="5">
         <v>186</v>
       </c>
@@ -3292,7 +4325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="30" customHeight="1">
+    <row r="187" ht="30" customHeight="1" spans="1:3">
       <c r="A187" s="5">
         <v>187</v>
       </c>
@@ -3301,7 +4334,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30" customHeight="1">
+    <row r="188" ht="30" customHeight="1" spans="1:3">
       <c r="A188" s="5">
         <v>188</v>
       </c>
@@ -3310,7 +4343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="30" customHeight="1">
+    <row r="189" ht="30" customHeight="1" spans="1:3">
       <c r="A189" s="5">
         <v>189</v>
       </c>
@@ -3319,7 +4352,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="30" customHeight="1">
+    <row r="190" ht="30" customHeight="1" spans="1:3">
       <c r="A190" s="5">
         <v>190</v>
       </c>
@@ -3328,7 +4361,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="30" customHeight="1">
+    <row r="191" ht="30" customHeight="1" spans="1:3">
       <c r="A191" s="5">
         <v>191</v>
       </c>
@@ -3337,7 +4370,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30" customHeight="1">
+    <row r="192" ht="30" customHeight="1" spans="1:3">
       <c r="A192" s="5">
         <v>192</v>
       </c>
@@ -3346,7 +4379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30" customHeight="1">
+    <row r="193" ht="30" customHeight="1" spans="1:3">
       <c r="A193" s="5">
         <v>193</v>
       </c>
@@ -3355,7 +4388,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30" customHeight="1">
+    <row r="194" ht="30" customHeight="1" spans="1:3">
       <c r="A194" s="5">
         <v>194</v>
       </c>
@@ -3364,7 +4397,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30" customHeight="1">
+    <row r="195" ht="30" customHeight="1" spans="1:3">
       <c r="A195" s="5">
         <v>195</v>
       </c>
@@ -3373,7 +4406,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30" customHeight="1">
+    <row r="196" ht="30" customHeight="1" spans="1:3">
       <c r="A196" s="5">
         <v>196</v>
       </c>
@@ -3382,7 +4415,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30" customHeight="1">
+    <row r="197" ht="30" customHeight="1" spans="1:3">
       <c r="A197" s="5">
         <v>197</v>
       </c>
@@ -3391,7 +4424,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30" customHeight="1">
+    <row r="198" ht="30" customHeight="1" spans="1:3">
       <c r="A198" s="5">
         <v>198</v>
       </c>
@@ -3400,7 +4433,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30" customHeight="1">
+    <row r="199" ht="30" customHeight="1" spans="1:3">
       <c r="A199" s="6">
         <v>199</v>
       </c>
@@ -3412,27 +4445,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.4222222222222" customWidth="1"/>
+    <col min="3" max="3" width="39.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -3441,7 +4475,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" spans="1:3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -3450,7 +4484,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" spans="1:3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -3459,7 +4493,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1">
+    <row r="4" ht="30" customHeight="1" spans="1:3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -3468,7 +4502,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1">
+    <row r="5" ht="30" customHeight="1" spans="1:3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -3477,7 +4511,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1">
+    <row r="6" ht="30" customHeight="1" spans="1:3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3486,7 +4520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" spans="1:3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -3495,7 +4529,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1">
+    <row r="8" ht="30" customHeight="1" spans="1:3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3504,7 +4538,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1">
+    <row r="9" ht="30" customHeight="1" spans="1:3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3513,7 +4547,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1">
+    <row r="10" ht="30" customHeight="1" spans="1:3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3522,7 +4556,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1">
+    <row r="11" ht="30" customHeight="1" spans="1:3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3531,7 +4565,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1">
+    <row r="12" ht="30" customHeight="1" spans="1:3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3540,7 +4574,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1">
+    <row r="13" ht="30" customHeight="1" spans="1:3">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3549,7 +4583,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1">
+    <row r="14" ht="30" customHeight="1" spans="1:3">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3558,7 +4592,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1" spans="1:3">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3567,7 +4601,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1">
+    <row r="16" ht="30" customHeight="1" spans="1:3">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3576,7 +4610,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1" spans="1:3">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3585,7 +4619,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
+    <row r="18" ht="30" customHeight="1" spans="1:3">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3594,7 +4628,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1">
+    <row r="19" ht="30" customHeight="1" spans="1:3">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3603,7 +4637,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1">
+    <row r="20" ht="30" customHeight="1" spans="1:3">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3612,7 +4646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
+    <row r="21" ht="30" customHeight="1" spans="1:3">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3621,7 +4655,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
+    <row r="22" ht="30" customHeight="1" spans="1:3">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3630,7 +4664,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+    <row r="23" ht="30" customHeight="1" spans="1:3">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3639,7 +4673,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
+    <row r="24" ht="30" customHeight="1" spans="1:3">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3648,7 +4682,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
+    <row r="25" ht="30" customHeight="1" spans="1:3">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3657,7 +4691,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
+    <row r="26" ht="30" customHeight="1" spans="1:3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3666,7 +4700,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
+    <row r="27" ht="30" customHeight="1" spans="1:3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3675,7 +4709,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
+    <row r="28" ht="30" customHeight="1" spans="1:3">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3684,7 +4718,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1">
+    <row r="29" ht="30" customHeight="1" spans="1:3">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -3693,7 +4727,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1">
+    <row r="30" ht="30" customHeight="1" spans="1:3">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3702,7 +4736,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1">
+    <row r="31" ht="30" customHeight="1" spans="1:3">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -3711,7 +4745,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1">
+    <row r="32" ht="30" customHeight="1" spans="1:3">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -3720,7 +4754,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
+    <row r="33" ht="30" customHeight="1" spans="1:3">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3729,7 +4763,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
+    <row r="34" ht="30" customHeight="1" spans="1:3">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3738,7 +4772,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
+    <row r="35" ht="30" customHeight="1" spans="1:3">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3747,7 +4781,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
+    <row r="36" ht="30" customHeight="1" spans="1:3">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3756,7 +4790,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1">
+    <row r="37" ht="30" customHeight="1" spans="1:3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3765,7 +4799,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
+    <row r="38" ht="30" customHeight="1" spans="1:3">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3774,7 +4808,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1">
+    <row r="39" ht="30" customHeight="1" spans="1:3">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3783,7 +4817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
+    <row r="40" ht="30" customHeight="1" spans="1:3">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -3792,7 +4826,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1">
+    <row r="41" ht="30" customHeight="1" spans="1:3">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -3801,7 +4835,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
+    <row r="42" ht="30" customHeight="1" spans="1:3">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -3810,7 +4844,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
+    <row r="43" ht="30" customHeight="1" spans="1:3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -3819,7 +4853,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1">
+    <row r="44" ht="30" customHeight="1" spans="1:3">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -3828,7 +4862,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1">
+    <row r="45" ht="30" customHeight="1" spans="1:3">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -3837,7 +4871,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1">
+    <row r="46" ht="30" customHeight="1" spans="1:3">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -3846,7 +4880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" customHeight="1">
+    <row r="47" ht="30" customHeight="1" spans="1:3">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -3855,7 +4889,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" customHeight="1">
+    <row r="48" ht="30" customHeight="1" spans="1:3">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -3864,7 +4898,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1">
+    <row r="49" ht="30" customHeight="1" spans="1:3">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -3873,7 +4907,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1">
+    <row r="50" ht="30" customHeight="1" spans="1:3">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -3882,7 +4916,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1">
+    <row r="51" ht="30" customHeight="1" spans="1:3">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -3891,7 +4925,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1">
+    <row r="52" ht="30" customHeight="1" spans="1:3">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -3900,7 +4934,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" customHeight="1">
+    <row r="53" ht="30" customHeight="1" spans="1:3">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -3909,7 +4943,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1">
+    <row r="54" ht="30" customHeight="1" spans="1:3">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -3918,7 +4952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1">
+    <row r="55" ht="30" customHeight="1" spans="1:3">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -3927,7 +4961,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1">
+    <row r="56" ht="30" customHeight="1" spans="1:3">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -3936,7 +4970,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1">
+    <row r="57" ht="30" customHeight="1" spans="1:3">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -3945,7 +4979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" customHeight="1">
+    <row r="58" ht="30" customHeight="1" spans="1:3">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -3954,7 +4988,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" customHeight="1">
+    <row r="59" ht="30" customHeight="1" spans="1:3">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -3963,7 +4997,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" customHeight="1">
+    <row r="60" ht="30" customHeight="1" spans="1:3">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -3972,7 +5006,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" customHeight="1">
+    <row r="61" ht="30" customHeight="1" spans="1:3">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -3981,7 +5015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" customHeight="1">
+    <row r="62" ht="30" customHeight="1" spans="1:3">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -3990,7 +5024,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" customHeight="1">
+    <row r="63" ht="30" customHeight="1" spans="1:3">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -3999,7 +5033,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1">
+    <row r="64" ht="30" customHeight="1" spans="1:3">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -4008,7 +5042,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1">
+    <row r="65" ht="30" customHeight="1" spans="1:3">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -4017,7 +5051,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" customHeight="1">
+    <row r="66" ht="30" customHeight="1" spans="1:3">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -4026,7 +5060,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" customHeight="1">
+    <row r="67" ht="30" customHeight="1" spans="1:3">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -4035,7 +5069,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" customHeight="1">
+    <row r="68" ht="30" customHeight="1" spans="1:3">
       <c r="A68" s="2">
         <v>68</v>
       </c>
@@ -4044,7 +5078,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" customHeight="1">
+    <row r="69" ht="30" customHeight="1" spans="1:3">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -4053,7 +5087,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1">
+    <row r="70" ht="30" customHeight="1" spans="1:3">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -4062,7 +5096,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" customHeight="1">
+    <row r="71" ht="30" customHeight="1" spans="1:3">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -4071,7 +5105,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1">
+    <row r="72" ht="30" customHeight="1" spans="1:3">
       <c r="A72" s="2">
         <v>72</v>
       </c>
@@ -4080,7 +5114,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" customHeight="1">
+    <row r="73" ht="30" customHeight="1" spans="1:3">
       <c r="A73" s="2">
         <v>73</v>
       </c>
@@ -4089,7 +5123,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" customHeight="1">
+    <row r="74" ht="30" customHeight="1" spans="1:3">
       <c r="A74" s="2">
         <v>74</v>
       </c>
@@ -4098,7 +5132,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30" customHeight="1">
+    <row r="75" ht="30" customHeight="1" spans="1:3">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -4107,7 +5141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" customHeight="1">
+    <row r="76" ht="30" customHeight="1" spans="1:3">
       <c r="A76" s="2">
         <v>76</v>
       </c>
@@ -4116,7 +5150,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30" customHeight="1">
+    <row r="77" ht="30" customHeight="1" spans="1:3">
       <c r="A77" s="2">
         <v>77</v>
       </c>
@@ -4125,7 +5159,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" customHeight="1">
+    <row r="78" ht="30" customHeight="1" spans="1:3">
       <c r="A78" s="2">
         <v>78</v>
       </c>
@@ -4134,7 +5168,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" customHeight="1">
+    <row r="79" ht="30" customHeight="1" spans="1:3">
       <c r="A79" s="2">
         <v>79</v>
       </c>
@@ -4143,7 +5177,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" customHeight="1">
+    <row r="80" ht="30" customHeight="1" spans="1:3">
       <c r="A80" s="2">
         <v>80</v>
       </c>
@@ -4152,7 +5186,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" customHeight="1">
+    <row r="81" ht="30" customHeight="1" spans="1:3">
       <c r="A81" s="2">
         <v>81</v>
       </c>
@@ -4161,7 +5195,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30" customHeight="1">
+    <row r="82" ht="30" customHeight="1" spans="1:3">
       <c r="A82" s="2">
         <v>82</v>
       </c>
@@ -4170,7 +5204,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" customHeight="1">
+    <row r="83" ht="30" customHeight="1" spans="1:3">
       <c r="A83" s="2">
         <v>83</v>
       </c>
@@ -4179,7 +5213,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30" customHeight="1">
+    <row r="84" ht="30" customHeight="1" spans="1:3">
       <c r="A84" s="2">
         <v>84</v>
       </c>
@@ -4188,7 +5222,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="30" customHeight="1">
+    <row r="85" ht="30" customHeight="1" spans="1:3">
       <c r="A85" s="2">
         <v>85</v>
       </c>
@@ -4197,7 +5231,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" customHeight="1">
+    <row r="86" ht="30" customHeight="1" spans="1:3">
       <c r="A86" s="2">
         <v>86</v>
       </c>
@@ -4206,7 +5240,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30" customHeight="1">
+    <row r="87" ht="30" customHeight="1" spans="1:3">
       <c r="A87" s="2">
         <v>87</v>
       </c>
@@ -4215,7 +5249,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" customHeight="1">
+    <row r="88" ht="30" customHeight="1" spans="1:3">
       <c r="A88" s="2">
         <v>88</v>
       </c>
@@ -4224,7 +5258,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1">
+    <row r="89" ht="30" customHeight="1" spans="1:3">
       <c r="A89" s="2">
         <v>89</v>
       </c>
@@ -4233,7 +5267,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1">
+    <row r="90" ht="30" customHeight="1" spans="1:3">
       <c r="A90" s="2">
         <v>90</v>
       </c>
@@ -4242,7 +5276,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1">
+    <row r="91" ht="30" customHeight="1" spans="1:3">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -4251,7 +5285,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1">
+    <row r="92" ht="30" customHeight="1" spans="1:3">
       <c r="A92" s="2">
         <v>92</v>
       </c>
@@ -4260,7 +5294,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1">
+    <row r="93" ht="30" customHeight="1" spans="1:3">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -4269,7 +5303,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" customHeight="1">
+    <row r="94" ht="30" customHeight="1" spans="1:3">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -4278,7 +5312,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" customHeight="1">
+    <row r="95" ht="30" customHeight="1" spans="1:3">
       <c r="A95" s="2">
         <v>95</v>
       </c>
@@ -4287,7 +5321,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="30" customHeight="1">
+    <row r="96" ht="30" customHeight="1" spans="1:3">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -4296,7 +5330,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30" customHeight="1">
+    <row r="97" ht="30" customHeight="1" spans="1:3">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -4305,7 +5339,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1">
+    <row r="98" ht="30" customHeight="1" spans="1:3">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -4314,7 +5348,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" customHeight="1">
+    <row r="99" ht="30" customHeight="1" spans="1:3">
       <c r="A99" s="2">
         <v>99</v>
       </c>
@@ -4323,7 +5357,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" customHeight="1">
+    <row r="100" ht="30" customHeight="1" spans="1:3">
       <c r="A100" s="2">
         <v>100</v>
       </c>
@@ -4332,7 +5366,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" customHeight="1">
+    <row r="101" ht="30" customHeight="1" spans="1:3">
       <c r="A101" s="2">
         <v>101</v>
       </c>
@@ -4341,7 +5375,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" customHeight="1">
+    <row r="102" ht="30" customHeight="1" spans="1:3">
       <c r="A102" s="2">
         <v>102</v>
       </c>
@@ -4350,7 +5384,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30" customHeight="1">
+    <row r="103" ht="30" customHeight="1" spans="1:3">
       <c r="A103" s="2">
         <v>103</v>
       </c>
@@ -4359,7 +5393,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" customHeight="1">
+    <row r="104" ht="30" customHeight="1" spans="1:3">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -4368,7 +5402,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="30" customHeight="1">
+    <row r="105" ht="30" customHeight="1" spans="1:3">
       <c r="A105" s="2">
         <v>105</v>
       </c>
@@ -4377,7 +5411,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" customHeight="1">
+    <row r="106" ht="30" customHeight="1" spans="1:3">
       <c r="A106" s="2">
         <v>106</v>
       </c>
@@ -4386,7 +5420,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1">
+    <row r="107" ht="30" customHeight="1" spans="1:3">
       <c r="A107" s="2">
         <v>107</v>
       </c>
@@ -4395,7 +5429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30" customHeight="1">
+    <row r="108" ht="30" customHeight="1" spans="1:3">
       <c r="A108" s="2">
         <v>108</v>
       </c>
@@ -4404,7 +5438,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1">
+    <row r="109" ht="30" customHeight="1" spans="1:3">
       <c r="A109" s="2">
         <v>109</v>
       </c>
@@ -4413,7 +5447,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30" customHeight="1">
+    <row r="110" ht="30" customHeight="1" spans="1:3">
       <c r="A110" s="2">
         <v>110</v>
       </c>
@@ -4422,7 +5456,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1">
+    <row r="111" ht="30" customHeight="1" spans="1:3">
       <c r="A111" s="2">
         <v>111</v>
       </c>
@@ -4431,7 +5465,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" customHeight="1">
+    <row r="112" ht="30" customHeight="1" spans="1:3">
       <c r="A112" s="2">
         <v>112</v>
       </c>
@@ -4440,7 +5474,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" customHeight="1">
+    <row r="113" ht="30" customHeight="1" spans="1:3">
       <c r="A113" s="2">
         <v>113</v>
       </c>
@@ -4449,7 +5483,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="30" customHeight="1">
+    <row r="114" ht="30" customHeight="1" spans="1:3">
       <c r="A114" s="2">
         <v>114</v>
       </c>
@@ -4458,7 +5492,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30" customHeight="1">
+    <row r="115" ht="30" customHeight="1" spans="1:3">
       <c r="A115" s="2">
         <v>115</v>
       </c>
@@ -4467,7 +5501,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30" customHeight="1">
+    <row r="116" ht="30" customHeight="1" spans="1:3">
       <c r="A116" s="2">
         <v>116</v>
       </c>
@@ -4476,7 +5510,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1">
+    <row r="117" ht="30" customHeight="1" spans="1:3">
       <c r="A117" s="2">
         <v>117</v>
       </c>
@@ -4485,7 +5519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30" customHeight="1">
+    <row r="118" ht="30" customHeight="1" spans="1:3">
       <c r="A118" s="2">
         <v>118</v>
       </c>
@@ -4494,7 +5528,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30" customHeight="1">
+    <row r="119" ht="30" customHeight="1" spans="1:3">
       <c r="A119" s="2">
         <v>119</v>
       </c>
@@ -4503,7 +5537,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30" customHeight="1">
+    <row r="120" ht="30" customHeight="1" spans="1:3">
       <c r="A120" s="2">
         <v>120</v>
       </c>
@@ -4512,7 +5546,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="30" customHeight="1">
+    <row r="121" ht="30" customHeight="1" spans="1:3">
       <c r="A121" s="2">
         <v>121</v>
       </c>
@@ -4521,7 +5555,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" customHeight="1">
+    <row r="122" ht="30" customHeight="1" spans="1:3">
       <c r="A122" s="2">
         <v>122</v>
       </c>
@@ -4530,7 +5564,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30" customHeight="1">
+    <row r="123" ht="30" customHeight="1" spans="1:3">
       <c r="A123" s="2">
         <v>123</v>
       </c>
@@ -4539,7 +5573,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30" customHeight="1">
+    <row r="124" ht="30" customHeight="1" spans="1:3">
       <c r="A124" s="2">
         <v>124</v>
       </c>
@@ -4548,7 +5582,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="30" customHeight="1">
+    <row r="125" ht="30" customHeight="1" spans="1:3">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -4557,7 +5591,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="30" customHeight="1">
+    <row r="126" ht="30" customHeight="1" spans="1:3">
       <c r="A126" s="2">
         <v>126</v>
       </c>
@@ -4566,7 +5600,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30" customHeight="1">
+    <row r="127" ht="30" customHeight="1" spans="1:3">
       <c r="A127" s="2">
         <v>127</v>
       </c>
@@ -4575,7 +5609,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30" customHeight="1">
+    <row r="128" ht="30" customHeight="1" spans="1:3">
       <c r="A128" s="2">
         <v>128</v>
       </c>
@@ -4584,7 +5618,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" customHeight="1">
+    <row r="129" ht="30" customHeight="1" spans="1:3">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -4593,7 +5627,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30" customHeight="1">
+    <row r="130" ht="30" customHeight="1" spans="1:3">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -4602,7 +5636,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" customHeight="1">
+    <row r="131" ht="30" customHeight="1" spans="1:3">
       <c r="A131" s="2">
         <v>131</v>
       </c>
@@ -4611,7 +5645,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="30" customHeight="1">
+    <row r="132" ht="30" customHeight="1" spans="1:3">
       <c r="A132" s="2">
         <v>132</v>
       </c>
@@ -4620,7 +5654,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30" customHeight="1">
+    <row r="133" ht="30" customHeight="1" spans="1:3">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -4629,7 +5663,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="30" customHeight="1">
+    <row r="134" ht="30" customHeight="1" spans="1:3">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -4638,7 +5672,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" customHeight="1">
+    <row r="135" ht="30" customHeight="1" spans="1:3">
       <c r="A135" s="2">
         <v>135</v>
       </c>
@@ -4647,7 +5681,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" customHeight="1">
+    <row r="136" ht="30" customHeight="1" spans="1:3">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -4656,7 +5690,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30" customHeight="1">
+    <row r="137" ht="30" customHeight="1" spans="1:3">
       <c r="A137" s="2">
         <v>137</v>
       </c>
@@ -4665,7 +5699,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30" customHeight="1">
+    <row r="138" ht="30" customHeight="1" spans="1:3">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -4674,7 +5708,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" customHeight="1">
+    <row r="139" ht="30" customHeight="1" spans="1:3">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -4683,7 +5717,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30" customHeight="1">
+    <row r="140" ht="30" customHeight="1" spans="1:3">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -4692,7 +5726,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" customHeight="1">
+    <row r="141" ht="30" customHeight="1" spans="1:3">
       <c r="A141" s="2">
         <v>141</v>
       </c>
@@ -4701,7 +5735,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="30" customHeight="1">
+    <row r="142" ht="30" customHeight="1" spans="1:3">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -4710,7 +5744,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="30" customHeight="1">
+    <row r="143" ht="30" customHeight="1" spans="1:3">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -4719,7 +5753,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" customHeight="1">
+    <row r="144" ht="30" customHeight="1" spans="1:3">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -4728,7 +5762,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30" customHeight="1">
+    <row r="145" ht="30" customHeight="1" spans="1:3">
       <c r="A145" s="2">
         <v>145</v>
       </c>
@@ -4737,7 +5771,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30" customHeight="1">
+    <row r="146" ht="30" customHeight="1" spans="1:3">
       <c r="A146" s="2">
         <v>146</v>
       </c>
@@ -4746,7 +5780,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" customHeight="1">
+    <row r="147" ht="30" customHeight="1" spans="1:3">
       <c r="A147" s="2">
         <v>147</v>
       </c>
@@ -4755,7 +5789,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="30" customHeight="1">
+    <row r="148" ht="30" customHeight="1" spans="1:3">
       <c r="A148" s="2">
         <v>148</v>
       </c>
@@ -4764,7 +5798,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30" customHeight="1">
+    <row r="149" ht="30" customHeight="1" spans="1:3">
       <c r="A149" s="2">
         <v>149</v>
       </c>
@@ -4773,7 +5807,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" customHeight="1">
+    <row r="150" ht="30" customHeight="1" spans="1:3">
       <c r="A150" s="2">
         <v>150</v>
       </c>
@@ -4782,7 +5816,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="30" customHeight="1">
+    <row r="151" ht="30" customHeight="1" spans="1:3">
       <c r="A151" s="2">
         <v>151</v>
       </c>
@@ -4791,7 +5825,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="30" customHeight="1">
+    <row r="152" ht="30" customHeight="1" spans="1:3">
       <c r="A152" s="2">
         <v>152</v>
       </c>
@@ -4800,7 +5834,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30" customHeight="1">
+    <row r="153" ht="30" customHeight="1" spans="1:3">
       <c r="A153" s="2">
         <v>153</v>
       </c>
@@ -4809,7 +5843,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" customHeight="1">
+    <row r="154" ht="30" customHeight="1" spans="1:3">
       <c r="A154" s="2">
         <v>154</v>
       </c>
@@ -4818,7 +5852,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30" customHeight="1">
+    <row r="155" ht="30" customHeight="1" spans="1:3">
       <c r="A155" s="2">
         <v>155</v>
       </c>
@@ -4827,7 +5861,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30" customHeight="1">
+    <row r="156" ht="30" customHeight="1" spans="1:3">
       <c r="A156" s="2">
         <v>156</v>
       </c>
@@ -4836,7 +5870,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30" customHeight="1">
+    <row r="157" ht="30" customHeight="1" spans="1:3">
       <c r="A157" s="2">
         <v>157</v>
       </c>
@@ -4845,7 +5879,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" customHeight="1">
+    <row r="158" ht="30" customHeight="1" spans="1:3">
       <c r="A158" s="2">
         <v>158</v>
       </c>
@@ -4854,7 +5888,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30" customHeight="1">
+    <row r="159" ht="30" customHeight="1" spans="1:3">
       <c r="A159" s="2">
         <v>159</v>
       </c>
@@ -4863,7 +5897,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30" customHeight="1">
+    <row r="160" ht="30" customHeight="1" spans="1:3">
       <c r="A160" s="2">
         <v>160</v>
       </c>
@@ -4872,7 +5906,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30" customHeight="1">
+    <row r="161" ht="30" customHeight="1" spans="1:3">
       <c r="A161" s="2">
         <v>161</v>
       </c>
@@ -4881,7 +5915,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30" customHeight="1">
+    <row r="162" ht="30" customHeight="1" spans="1:3">
       <c r="A162" s="2">
         <v>162</v>
       </c>
@@ -4890,7 +5924,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30" customHeight="1">
+    <row r="163" ht="30" customHeight="1" spans="1:3">
       <c r="A163" s="2">
         <v>163</v>
       </c>
@@ -4899,7 +5933,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30" customHeight="1">
+    <row r="164" ht="30" customHeight="1" spans="1:3">
       <c r="A164" s="2">
         <v>164</v>
       </c>
@@ -4908,7 +5942,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="30" customHeight="1">
+    <row r="165" ht="30" customHeight="1" spans="1:3">
       <c r="A165" s="2">
         <v>165</v>
       </c>
@@ -4917,7 +5951,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30" customHeight="1">
+    <row r="166" ht="30" customHeight="1" spans="1:3">
       <c r="A166" s="2">
         <v>166</v>
       </c>
@@ -4926,7 +5960,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30" customHeight="1">
+    <row r="167" ht="30" customHeight="1" spans="1:3">
       <c r="A167" s="2">
         <v>167</v>
       </c>
@@ -4935,7 +5969,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="30" customHeight="1">
+    <row r="168" ht="30" customHeight="1" spans="1:3">
       <c r="A168" s="2">
         <v>168</v>
       </c>
@@ -4944,7 +5978,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="30" customHeight="1">
+    <row r="169" ht="30" customHeight="1" spans="1:3">
       <c r="A169" s="2">
         <v>169</v>
       </c>
@@ -4953,7 +5987,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30" customHeight="1">
+    <row r="170" ht="30" customHeight="1" spans="1:3">
       <c r="A170" s="2">
         <v>170</v>
       </c>
@@ -4962,7 +5996,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="30" customHeight="1">
+    <row r="171" ht="30" customHeight="1" spans="1:3">
       <c r="A171" s="2">
         <v>171</v>
       </c>
@@ -4971,7 +6005,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="30" customHeight="1">
+    <row r="172" ht="30" customHeight="1" spans="1:3">
       <c r="A172" s="2">
         <v>172</v>
       </c>
@@ -4980,7 +6014,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30" customHeight="1">
+    <row r="173" ht="30" customHeight="1" spans="1:3">
       <c r="A173" s="2">
         <v>173</v>
       </c>
@@ -4989,7 +6023,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30" customHeight="1">
+    <row r="174" ht="30" customHeight="1" spans="1:3">
       <c r="A174" s="2">
         <v>174</v>
       </c>
@@ -4998,7 +6032,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30" customHeight="1">
+    <row r="175" ht="30" customHeight="1" spans="1:3">
       <c r="A175" s="2">
         <v>175</v>
       </c>
@@ -5007,7 +6041,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30" customHeight="1">
+    <row r="176" ht="30" customHeight="1" spans="1:3">
       <c r="A176" s="2">
         <v>176</v>
       </c>
@@ -5016,7 +6050,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="30" customHeight="1">
+    <row r="177" ht="30" customHeight="1" spans="1:3">
       <c r="A177" s="2">
         <v>177</v>
       </c>
@@ -5025,7 +6059,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30" customHeight="1">
+    <row r="178" ht="30" customHeight="1" spans="1:3">
       <c r="A178" s="2">
         <v>178</v>
       </c>
@@ -5034,7 +6068,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30" customHeight="1">
+    <row r="179" ht="30" customHeight="1" spans="1:3">
       <c r="A179" s="2">
         <v>179</v>
       </c>
@@ -5043,7 +6077,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30" customHeight="1">
+    <row r="180" ht="30" customHeight="1" spans="1:3">
       <c r="A180" s="2">
         <v>180</v>
       </c>
@@ -5052,7 +6086,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="30" customHeight="1">
+    <row r="181" ht="30" customHeight="1" spans="1:3">
       <c r="A181" s="2">
         <v>181</v>
       </c>
@@ -5061,7 +6095,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30" customHeight="1">
+    <row r="182" ht="30" customHeight="1" spans="1:3">
       <c r="A182" s="2">
         <v>182</v>
       </c>
@@ -5070,7 +6104,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" customHeight="1">
+    <row r="183" ht="30" customHeight="1" spans="1:3">
       <c r="A183" s="2">
         <v>183</v>
       </c>
@@ -5079,7 +6113,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="30" customHeight="1">
+    <row r="184" ht="30" customHeight="1" spans="1:3">
       <c r="A184" s="2">
         <v>184</v>
       </c>
@@ -5088,7 +6122,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="30" customHeight="1">
+    <row r="185" ht="30" customHeight="1" spans="1:3">
       <c r="A185" s="2">
         <v>185</v>
       </c>
@@ -5097,7 +6131,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="30" customHeight="1">
+    <row r="186" ht="30" customHeight="1" spans="1:3">
       <c r="A186" s="2">
         <v>186</v>
       </c>
@@ -5106,7 +6140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="30" customHeight="1">
+    <row r="187" ht="30" customHeight="1" spans="1:3">
       <c r="A187" s="2">
         <v>187</v>
       </c>
@@ -5115,7 +6149,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30" customHeight="1">
+    <row r="188" ht="30" customHeight="1" spans="1:3">
       <c r="A188" s="2">
         <v>188</v>
       </c>
@@ -5124,7 +6158,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="30" customHeight="1">
+    <row r="189" ht="30" customHeight="1" spans="1:3">
       <c r="A189" s="2">
         <v>189</v>
       </c>
@@ -5133,7 +6167,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="30" customHeight="1">
+    <row r="190" ht="30" customHeight="1" spans="1:3">
       <c r="A190" s="2">
         <v>190</v>
       </c>
@@ -5142,7 +6176,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="30" customHeight="1">
+    <row r="191" ht="30" customHeight="1" spans="1:3">
       <c r="A191" s="2">
         <v>191</v>
       </c>
@@ -5151,7 +6185,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30" customHeight="1">
+    <row r="192" ht="30" customHeight="1" spans="1:3">
       <c r="A192" s="2">
         <v>192</v>
       </c>
@@ -5160,7 +6194,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30" customHeight="1">
+    <row r="193" ht="30" customHeight="1" spans="1:3">
       <c r="A193" s="2">
         <v>193</v>
       </c>
@@ -5169,7 +6203,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30" customHeight="1">
+    <row r="194" ht="30" customHeight="1" spans="1:3">
       <c r="A194" s="2">
         <v>194</v>
       </c>
@@ -5178,7 +6212,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30" customHeight="1">
+    <row r="195" ht="30" customHeight="1" spans="1:3">
       <c r="A195" s="2">
         <v>195</v>
       </c>
@@ -5187,7 +6221,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30" customHeight="1">
+    <row r="196" ht="30" customHeight="1" spans="1:3">
       <c r="A196" s="2">
         <v>196</v>
       </c>
@@ -5196,7 +6230,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30" customHeight="1">
+    <row r="197" ht="30" customHeight="1" spans="1:3">
       <c r="A197" s="2">
         <v>197</v>
       </c>
@@ -5205,7 +6239,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30" customHeight="1">
+    <row r="198" ht="30" customHeight="1" spans="1:3">
       <c r="A198" s="2">
         <v>198</v>
       </c>
@@ -5214,7 +6248,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30" customHeight="1">
+    <row r="199" ht="30" customHeight="1" spans="1:3">
       <c r="A199" s="3">
         <v>199</v>
       </c>
@@ -5223,7 +6257,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" customHeight="1">
+    <row r="200" ht="30" customHeight="1" spans="1:3">
       <c r="A200" s="2">
         <f t="shared" ref="A200:A212" si="0">A199+1</f>
         <v>200</v>
@@ -5233,7 +6267,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30" customHeight="1">
+    <row r="201" ht="30" customHeight="1" spans="1:3">
       <c r="A201" s="2">
         <f t="shared" si="0"/>
         <v>201</v>
@@ -5243,7 +6277,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30" customHeight="1">
+    <row r="202" ht="30" customHeight="1" spans="1:3">
       <c r="A202" s="2">
         <f t="shared" si="0"/>
         <v>202</v>
@@ -5253,7 +6287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30" customHeight="1">
+    <row r="203" ht="30" customHeight="1" spans="1:3">
       <c r="A203" s="2">
         <f t="shared" si="0"/>
         <v>203</v>
@@ -5263,7 +6297,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="30" customHeight="1">
+    <row r="204" ht="30" customHeight="1" spans="1:3">
       <c r="A204" s="2">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -5273,7 +6307,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="30" customHeight="1">
+    <row r="205" ht="30" customHeight="1" spans="1:3">
       <c r="A205" s="2">
         <f t="shared" si="0"/>
         <v>205</v>
@@ -5283,7 +6317,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30" customHeight="1">
+    <row r="206" ht="30" customHeight="1" spans="1:3">
       <c r="A206" s="2">
         <f t="shared" si="0"/>
         <v>206</v>
@@ -5293,7 +6327,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30" customHeight="1">
+    <row r="207" ht="30" customHeight="1" spans="1:3">
       <c r="A207" s="2">
         <f t="shared" si="0"/>
         <v>207</v>
@@ -5303,7 +6337,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30" customHeight="1">
+    <row r="208" ht="30" customHeight="1" spans="1:3">
       <c r="A208" s="2">
         <f t="shared" si="0"/>
         <v>208</v>
@@ -5313,7 +6347,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="30" customHeight="1">
+    <row r="209" ht="30" customHeight="1" spans="1:3">
       <c r="A209" s="2">
         <f t="shared" si="0"/>
         <v>209</v>
@@ -5323,7 +6357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30" customHeight="1">
+    <row r="210" ht="30" customHeight="1" spans="1:3">
       <c r="A210" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -5333,7 +6367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30" customHeight="1">
+    <row r="211" ht="30" customHeight="1" spans="1:3">
       <c r="A211" s="3">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -5343,7 +6377,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" customHeight="1">
+    <row r="212" ht="30" customHeight="1" spans="1:3">
       <c r="A212" s="3">
         <f t="shared" si="0"/>
         <v>212</v>
@@ -5356,5 +6390,1380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="42.4222222222222" customWidth="1"/>
+    <col min="3" max="3" width="44.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:3">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:3">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:3">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:3">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:3">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:3">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:3">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:3">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:3">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:3">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:3">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:3">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:3">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:3">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:3">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:3">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:3">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:3">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:3">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:3">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:3">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:3">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:3">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:3">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:3">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:3">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:3">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:3">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:3">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:3">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:3">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:3">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:3">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:3">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:3">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:3">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:3">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:3">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:3">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:3">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:3">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:3">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:3">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:3">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:3">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:3">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:3">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:3">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="1:3">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:3">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:3">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:3">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:3">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:3">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:3">
+      <c r="A56" s="2">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:3">
+      <c r="A57" s="2">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:3">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:3">
+      <c r="A59" s="2">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:3">
+      <c r="A60" s="2">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:3">
+      <c r="A61" s="2">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:3">
+      <c r="A62" s="2">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:3">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:3">
+      <c r="A64" s="2">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:3">
+      <c r="A65" s="2">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:3">
+      <c r="A66" s="2">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:3">
+      <c r="A67" s="2">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:3">
+      <c r="A68" s="2">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:3">
+      <c r="A69" s="2">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1" spans="1:3">
+      <c r="A70" s="2">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1" spans="1:3">
+      <c r="A71" s="2">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1" spans="1:3">
+      <c r="A72" s="2">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1" spans="1:3">
+      <c r="A73" s="2">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1" spans="1:3">
+      <c r="A74" s="2">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1" spans="1:3">
+      <c r="A75" s="2">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1" spans="1:3">
+      <c r="A76" s="2">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1" spans="1:3">
+      <c r="A77" s="2">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1" spans="1:3">
+      <c r="A78" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1" spans="1:3">
+      <c r="A79" s="2">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1" spans="1:3">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1" spans="1:3">
+      <c r="A81" s="2">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1" spans="1:3">
+      <c r="A82" s="2">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1" spans="1:3">
+      <c r="A83" s="2">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1" spans="1:3">
+      <c r="A84" s="2">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1" spans="1:3">
+      <c r="A85" s="2">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="86" ht="30" customHeight="1" spans="1:3">
+      <c r="A86" s="2">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1" spans="1:3">
+      <c r="A87" s="2">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:3">
+      <c r="A88" s="2">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1" spans="1:3">
+      <c r="A89" s="2">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1" spans="1:3">
+      <c r="A90" s="2">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1" spans="1:3">
+      <c r="A91" s="2">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1" spans="1:3">
+      <c r="A92" s="2">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1" spans="1:3">
+      <c r="A93" s="2">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1" spans="1:3">
+      <c r="A94" s="2">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1" spans="1:3">
+      <c r="A95" s="2">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1" spans="1:3">
+      <c r="A96" s="2">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1" spans="1:3">
+      <c r="A97" s="2">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1" spans="1:3">
+      <c r="A98" s="2">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1" spans="1:3">
+      <c r="A99" s="2">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1" spans="1:3">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1" spans="1:3">
+      <c r="A101" s="2">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" ht="30" customHeight="1" spans="1:3">
+      <c r="A102" s="2">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" ht="30" customHeight="1" spans="1:3">
+      <c r="A103" s="2">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="104" ht="30" customHeight="1" spans="1:3">
+      <c r="A104" s="2">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="105" ht="30" customHeight="1" spans="1:3">
+      <c r="A105" s="2">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="106" ht="30" customHeight="1" spans="1:3">
+      <c r="A106" s="2">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="107" ht="30" customHeight="1" spans="1:3">
+      <c r="A107" s="2">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" ht="30" customHeight="1" spans="1:3">
+      <c r="A108" s="2">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="109" ht="30" customHeight="1" spans="1:3">
+      <c r="A109" s="2">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="110" ht="30" customHeight="1" spans="1:3">
+      <c r="A110" s="2">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="111" ht="30" customHeight="1" spans="1:3">
+      <c r="A111" s="2">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="112" ht="30" customHeight="1" spans="1:3">
+      <c r="A112" s="2">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" ht="30" customHeight="1" spans="1:3">
+      <c r="A113" s="2">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="114" ht="30" customHeight="1" spans="1:3">
+      <c r="A114" s="2">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" ht="30" customHeight="1" spans="1:3">
+      <c r="A115" s="2">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="116" ht="30" customHeight="1" spans="1:3">
+      <c r="A116" s="2">
+        <v>116</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" ht="30" customHeight="1" spans="1:3">
+      <c r="A117" s="2">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="118" ht="30" customHeight="1" spans="1:3">
+      <c r="A118" s="2">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="119" ht="30" customHeight="1" spans="1:3">
+      <c r="A119" s="2">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="120" ht="30" customHeight="1" spans="1:3">
+      <c r="A120" s="2">
+        <v>120</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="121" ht="30" customHeight="1" spans="1:3">
+      <c r="A121" s="2">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="122" ht="30" customHeight="1" spans="1:3">
+      <c r="A122" s="2">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="123" ht="30" customHeight="1" spans="1:3">
+      <c r="A123" s="2">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" ht="30" customHeight="1" spans="1:3">
+      <c r="A124" s="2">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" ht="30" customHeight="1" spans="1:3">
+      <c r="A125" s="2">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" ht="30" customHeight="1" spans="1:3">
+      <c r="A126" s="2">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" ht="30" customHeight="1" spans="1:3">
+      <c r="A127" s="2">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="128" ht="30" customHeight="1" spans="1:3">
+      <c r="A128" s="2">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="129" ht="30" customHeight="1" spans="1:3">
+      <c r="A129" s="2">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" ht="30" customHeight="1" spans="1:3">
+      <c r="A130" s="2">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1" spans="1:3">
+      <c r="A131" s="2">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1" spans="1:3">
+      <c r="A132" s="2">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="133" ht="30" customHeight="1" spans="1:3">
+      <c r="A133" s="2">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="134" ht="30" customHeight="1" spans="1:3">
+      <c r="A134" s="2">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="135" ht="30" customHeight="1" spans="1:3">
+      <c r="A135" s="2">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" ht="30" customHeight="1" spans="1:3">
+      <c r="A136" s="2">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" ht="30" customHeight="1" spans="1:3">
+      <c r="A137" s="2">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="138" ht="30" customHeight="1" spans="1:3">
+      <c r="A138" s="2">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="139" ht="30" customHeight="1" spans="1:3">
+      <c r="A139" s="2">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" ht="30" customHeight="1" spans="1:3">
+      <c r="A140" s="2">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="141" ht="30" customHeight="1" spans="1:3">
+      <c r="A141" s="2">
+        <v>141</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="142" ht="30" customHeight="1" spans="1:3">
+      <c r="A142" s="2">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" ht="30" customHeight="1" spans="1:3">
+      <c r="A143" s="2">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1" spans="1:3">
+      <c r="A144" s="2">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1" spans="1:3">
+      <c r="A145" s="2">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" ht="30" customHeight="1" spans="1:3">
+      <c r="A146" s="2">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" spans="1:3">
+      <c r="A147" s="2">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" ht="30" customHeight="1" spans="1:3">
+      <c r="A148" s="2">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="149" ht="30" customHeight="1" spans="1:3">
+      <c r="A149" s="2">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" ht="30" customHeight="1" spans="1:3">
+      <c r="A150" s="2">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>